--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/1000_model_6_5_2.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/1000_model_6_5_2.xlsx
@@ -466,7 +466,7 @@
         <v>3.528199178120826</v>
       </c>
       <c r="D2" t="n">
-        <v>3.951929330825806</v>
+        <v>3.951929092407227</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>3.299645433692669</v>
       </c>
       <c r="D3" t="n">
-        <v>3.678277969360352</v>
+        <v>3.678278207778931</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>2.648105515125981</v>
       </c>
       <c r="D5" t="n">
-        <v>3.080721139907837</v>
+        <v>3.080721378326416</v>
       </c>
     </row>
     <row r="6">
@@ -564,7 +564,7 @@
         <v>1.607071911269599</v>
       </c>
       <c r="D9" t="n">
-        <v>1.850618600845337</v>
+        <v>1.850618243217468</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>1.479875154414237</v>
       </c>
       <c r="D10" t="n">
-        <v>1.600676774978638</v>
+        <v>1.600676536560059</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>1.404551743365336</v>
       </c>
       <c r="D11" t="n">
-        <v>1.402642846107483</v>
+        <v>1.402643084526062</v>
       </c>
     </row>
     <row r="12">
@@ -620,7 +620,7 @@
         <v>1.385995091465572</v>
       </c>
       <c r="D13" t="n">
-        <v>1.203537583351135</v>
+        <v>1.203537344932556</v>
       </c>
     </row>
     <row r="14">
@@ -662,7 +662,7 @@
         <v>1.598267225469177</v>
       </c>
       <c r="D16" t="n">
-        <v>1.422157645225525</v>
+        <v>1.422157526016235</v>
       </c>
     </row>
     <row r="17">
@@ -746,7 +746,7 @@
         <v>2.423708843404018</v>
       </c>
       <c r="D22" t="n">
-        <v>2.500327587127686</v>
+        <v>2.500327348709106</v>
       </c>
     </row>
     <row r="23">
@@ -788,7 +788,7 @@
         <v>2.794762725377836</v>
       </c>
       <c r="D25" t="n">
-        <v>2.687635898590088</v>
+        <v>2.687635660171509</v>
       </c>
     </row>
     <row r="26">
@@ -802,7 +802,7 @@
         <v>2.875519233238856</v>
       </c>
       <c r="D26" t="n">
-        <v>2.689700603485107</v>
+        <v>2.689700365066528</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>2.926025662149036</v>
       </c>
       <c r="D27" t="n">
-        <v>2.670892477035522</v>
+        <v>2.670892715454102</v>
       </c>
     </row>
     <row r="28">
@@ -872,7 +872,7 @@
         <v>2.811904559938141</v>
       </c>
       <c r="D31" t="n">
-        <v>2.484239816665649</v>
+        <v>2.484240055084229</v>
       </c>
     </row>
     <row r="32">
@@ -900,7 +900,7 @@
         <v>2.659968268488989</v>
       </c>
       <c r="D33" t="n">
-        <v>2.370231151580811</v>
+        <v>2.37023138999939</v>
       </c>
     </row>
     <row r="34">
@@ -914,7 +914,7 @@
         <v>3.173507168895993</v>
       </c>
       <c r="D34" t="n">
-        <v>3.968086004257202</v>
+        <v>3.968086242675781</v>
       </c>
     </row>
     <row r="35">
@@ -970,7 +970,7 @@
         <v>1.965523852991269</v>
       </c>
       <c r="D38" t="n">
-        <v>2.768578290939331</v>
+        <v>2.768578052520752</v>
       </c>
     </row>
     <row r="39">
@@ -998,7 +998,7 @@
         <v>1.435450190339559</v>
       </c>
       <c r="D40" t="n">
-        <v>2.142116546630859</v>
+        <v>2.142116785049438</v>
       </c>
     </row>
     <row r="41">
@@ -1026,7 +1026,7 @@
         <v>1.125183145189406</v>
       </c>
       <c r="D42" t="n">
-        <v>1.603617548942566</v>
+        <v>1.603617906570435</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>1.049859734140504</v>
       </c>
       <c r="D43" t="n">
-        <v>1.40324079990387</v>
+        <v>1.403240203857422</v>
       </c>
     </row>
     <row r="44">
@@ -1068,7 +1068,7 @@
         <v>1.031303082240741</v>
       </c>
       <c r="D45" t="n">
-        <v>1.197409391403198</v>
+        <v>1.19740903377533</v>
       </c>
     </row>
     <row r="46">
@@ -1082,7 +1082,7 @@
         <v>1.075632032697805</v>
       </c>
       <c r="D46" t="n">
-        <v>1.201878905296326</v>
+        <v>1.201878786087036</v>
       </c>
     </row>
     <row r="47">
@@ -1110,7 +1110,7 @@
         <v>1.243575216244345</v>
       </c>
       <c r="D48" t="n">
-        <v>1.40656840801239</v>
+        <v>1.406568765640259</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>1.357811705499883</v>
       </c>
       <c r="D49" t="n">
-        <v>1.581413626670837</v>
+        <v>1.581413269042969</v>
       </c>
     </row>
     <row r="50">
@@ -1152,7 +1152,7 @@
         <v>1.626475781118616</v>
       </c>
       <c r="D51" t="n">
-        <v>1.985790967941284</v>
+        <v>1.985791087150574</v>
       </c>
     </row>
     <row r="52">
@@ -1208,7 +1208,7 @@
         <v>2.208220325563274</v>
       </c>
       <c r="D55" t="n">
-        <v>2.578804492950439</v>
+        <v>2.57880425453186</v>
       </c>
     </row>
     <row r="56">
@@ -1236,7 +1236,7 @@
         <v>2.440070716153005</v>
       </c>
       <c r="D57" t="n">
-        <v>2.669166803359985</v>
+        <v>2.669167041778564</v>
       </c>
     </row>
     <row r="58">
@@ -1250,7 +1250,7 @@
         <v>2.520827224014024</v>
       </c>
       <c r="D58" t="n">
-        <v>2.671556711196899</v>
+        <v>2.67155647277832</v>
       </c>
     </row>
     <row r="59">
@@ -1264,7 +1264,7 @@
         <v>2.571333652924205</v>
       </c>
       <c r="D59" t="n">
-        <v>2.653114318847656</v>
+        <v>2.653114080429077</v>
       </c>
     </row>
     <row r="60">
@@ -1292,7 +1292,7 @@
         <v>2.572246145258431</v>
       </c>
       <c r="D61" t="n">
-        <v>2.574799299240112</v>
+        <v>2.574798822402954</v>
       </c>
     </row>
     <row r="62">
@@ -1306,7 +1306,7 @@
         <v>2.525873636959354</v>
       </c>
       <c r="D62" t="n">
-        <v>2.523491382598877</v>
+        <v>2.523491144180298</v>
       </c>
     </row>
     <row r="63">
@@ -1334,7 +1334,7 @@
         <v>2.378418361221304</v>
       </c>
       <c r="D64" t="n">
-        <v>2.412135362625122</v>
+        <v>2.412135601043701</v>
       </c>
     </row>
     <row r="65">
@@ -1348,7 +1348,7 @@
         <v>2.305276259264157</v>
       </c>
       <c r="D65" t="n">
-        <v>2.356350183486938</v>
+        <v>2.356350421905518</v>
       </c>
     </row>
     <row r="66">
@@ -1376,7 +1376,7 @@
         <v>2.75413347852185</v>
       </c>
       <c r="D67" t="n">
-        <v>3.706926107406616</v>
+        <v>3.706926345825195</v>
       </c>
     </row>
     <row r="68">
@@ -1404,7 +1404,7 @@
         <v>2.102593559955162</v>
       </c>
       <c r="D69" t="n">
-        <v>3.092627286911011</v>
+        <v>3.09262752532959</v>
       </c>
     </row>
     <row r="70">
@@ -1418,7 +1418,7 @@
         <v>1.774703907045281</v>
       </c>
       <c r="D70" t="n">
-        <v>2.770635843276978</v>
+        <v>2.770635366439819</v>
       </c>
     </row>
     <row r="71">
@@ -1460,7 +1460,7 @@
         <v>1.06155995609878</v>
       </c>
       <c r="D73" t="n">
-        <v>1.856532692909241</v>
+        <v>1.856532454490662</v>
       </c>
     </row>
     <row r="74">
@@ -1488,7 +1488,7 @@
         <v>0.8590397881945164</v>
       </c>
       <c r="D75" t="n">
-        <v>1.404151797294617</v>
+        <v>1.404151916503906</v>
       </c>
     </row>
     <row r="76">
@@ -1502,7 +1502,7 @@
         <v>0.8298468271493438</v>
       </c>
       <c r="D76" t="n">
-        <v>1.263867735862732</v>
+        <v>1.263867616653442</v>
       </c>
     </row>
     <row r="77">
@@ -1516,7 +1516,7 @@
         <v>0.8404831362947531</v>
       </c>
       <c r="D77" t="n">
-        <v>1.192904829978943</v>
+        <v>1.192904472351074</v>
       </c>
     </row>
     <row r="78">
@@ -1558,7 +1558,7 @@
         <v>1.052755270298357</v>
       </c>
       <c r="D80" t="n">
-        <v>1.393163800239563</v>
+        <v>1.393164038658142</v>
       </c>
     </row>
     <row r="81">
@@ -1572,7 +1572,7 @@
         <v>1.166991759553895</v>
       </c>
       <c r="D81" t="n">
-        <v>1.566278457641602</v>
+        <v>1.566278576850891</v>
       </c>
     </row>
     <row r="82">
@@ -1600,7 +1600,7 @@
         <v>1.435655835172628</v>
       </c>
       <c r="D83" t="n">
-        <v>1.969327211380005</v>
+        <v>1.969327449798584</v>
       </c>
     </row>
     <row r="84">
@@ -1614,7 +1614,7 @@
         <v>1.582237024351933</v>
       </c>
       <c r="D84" t="n">
-        <v>2.162436723709106</v>
+        <v>2.162436485290527</v>
       </c>
     </row>
     <row r="85">
@@ -1684,7 +1684,7 @@
         <v>2.249250770207017</v>
       </c>
       <c r="D89" t="n">
-        <v>2.653161525726318</v>
+        <v>2.653161287307739</v>
       </c>
     </row>
     <row r="90">
@@ -1712,7 +1712,7 @@
         <v>2.380513706978217</v>
       </c>
       <c r="D91" t="n">
-        <v>2.637505292892456</v>
+        <v>2.637505531311035</v>
       </c>
     </row>
     <row r="92">
@@ -1726,7 +1726,7 @@
         <v>2.397733197510575</v>
       </c>
       <c r="D92" t="n">
-        <v>2.603954553604126</v>
+        <v>2.603954315185547</v>
       </c>
     </row>
     <row r="93">
@@ -1754,7 +1754,7 @@
         <v>2.335053691013366</v>
       </c>
       <c r="D94" t="n">
-        <v>2.509045362472534</v>
+        <v>2.509045600891113</v>
       </c>
     </row>
     <row r="95">
@@ -1768,7 +1768,7 @@
         <v>2.266392604767321</v>
       </c>
       <c r="D95" t="n">
-        <v>2.454747676849365</v>
+        <v>2.454747438430786</v>
       </c>
     </row>
     <row r="96">
@@ -1838,7 +1838,7 @@
         <v>2.379452015847599</v>
       </c>
       <c r="D100" t="n">
-        <v>3.420367956161499</v>
+        <v>3.42036771774292</v>
       </c>
     </row>
     <row r="101">
@@ -1852,7 +1852,7 @@
         <v>2.039734561090894</v>
       </c>
       <c r="D101" t="n">
-        <v>3.101632595062256</v>
+        <v>3.101633071899414</v>
       </c>
     </row>
     <row r="102">
@@ -1880,7 +1880,7 @@
         <v>1.421239830989663</v>
       </c>
       <c r="D103" t="n">
-        <v>2.45056676864624</v>
+        <v>2.450567007064819</v>
       </c>
     </row>
     <row r="104">
@@ -1908,7 +1908,7 @@
         <v>0.9987009572345125</v>
       </c>
       <c r="D105" t="n">
-        <v>1.855796933174133</v>
+        <v>1.855796694755554</v>
       </c>
     </row>
     <row r="106">
@@ -1922,7 +1922,7 @@
         <v>0.8715042003791504</v>
       </c>
       <c r="D106" t="n">
-        <v>1.606334567070007</v>
+        <v>1.606334805488586</v>
       </c>
     </row>
     <row r="107">
@@ -1950,7 +1950,7 @@
         <v>0.7669878282850764</v>
       </c>
       <c r="D108" t="n">
-        <v>1.263457059860229</v>
+        <v>1.263456225395203</v>
       </c>
     </row>
     <row r="109">
@@ -1964,7 +1964,7 @@
         <v>0.7776241374304858</v>
       </c>
       <c r="D109" t="n">
-        <v>1.190168619155884</v>
+        <v>1.190168857574463</v>
       </c>
     </row>
     <row r="110">
@@ -1992,7 +1992,7 @@
         <v>0.8943676588433951</v>
       </c>
       <c r="D111" t="n">
-        <v>1.255675077438354</v>
+        <v>1.255674839019775</v>
       </c>
     </row>
     <row r="112">
@@ -2006,7 +2006,7 @@
         <v>0.98989627143409</v>
       </c>
       <c r="D112" t="n">
-        <v>1.382463812828064</v>
+        <v>1.382464051246643</v>
       </c>
     </row>
     <row r="113">
@@ -2020,7 +2020,7 @@
         <v>1.104132760689628</v>
       </c>
       <c r="D113" t="n">
-        <v>1.553971171379089</v>
+        <v>1.553971290588379</v>
       </c>
     </row>
     <row r="114">
@@ -2048,7 +2048,7 @@
         <v>1.37279683630836</v>
       </c>
       <c r="D115" t="n">
-        <v>1.955873370170593</v>
+        <v>1.955873608589172</v>
       </c>
     </row>
     <row r="116">
@@ -2062,7 +2062,7 @@
         <v>1.519378025487666</v>
       </c>
       <c r="D116" t="n">
-        <v>2.149017810821533</v>
+        <v>2.149018049240112</v>
       </c>
     </row>
     <row r="117">
@@ -2076,7 +2076,7 @@
         <v>1.668493612841953</v>
       </c>
       <c r="D117" t="n">
-        <v>2.31725025177002</v>
+        <v>2.31725001335144</v>
       </c>
     </row>
     <row r="118">
@@ -2104,7 +2104,7 @@
         <v>1.954541380753018</v>
       </c>
       <c r="D119" t="n">
-        <v>2.549421787261963</v>
+        <v>2.549422025680542</v>
       </c>
     </row>
     <row r="120">
@@ -2118,7 +2118,7 @@
         <v>2.080250547566135</v>
       </c>
       <c r="D120" t="n">
-        <v>2.61083459854126</v>
+        <v>2.610834360122681</v>
       </c>
     </row>
     <row r="121">
@@ -2132,7 +2132,7 @@
         <v>2.18639177134275</v>
       </c>
       <c r="D121" t="n">
-        <v>2.640081882476807</v>
+        <v>2.640082120895386</v>
       </c>
     </row>
     <row r="122">
@@ -2146,7 +2146,7 @@
         <v>2.267148279203769</v>
       </c>
       <c r="D122" t="n">
-        <v>2.642686605453491</v>
+        <v>2.642686367034912</v>
       </c>
     </row>
     <row r="123">
@@ -2160,7 +2160,7 @@
         <v>2.317654708113949</v>
       </c>
       <c r="D123" t="n">
-        <v>2.624542236328125</v>
+        <v>2.624541997909546</v>
       </c>
     </row>
     <row r="124">
@@ -2188,7 +2188,7 @@
         <v>2.318567200448175</v>
       </c>
       <c r="D125" t="n">
-        <v>2.547412872314453</v>
+        <v>2.547413110733032</v>
       </c>
     </row>
     <row r="126">
@@ -2258,7 +2258,7 @@
         <v>2.954290469142716</v>
       </c>
       <c r="D130" t="n">
-        <v>4.005133152008057</v>
+        <v>4.005133628845215</v>
       </c>
     </row>
     <row r="131">
@@ -2342,7 +2342,7 @@
         <v>1.216233490586281</v>
       </c>
       <c r="D136" t="n">
-        <v>2.139062166213989</v>
+        <v>2.13906192779541</v>
       </c>
     </row>
     <row r="137">
@@ -2356,7 +2356,7 @@
         <v>1.03316320229149</v>
       </c>
       <c r="D137" t="n">
-        <v>1.853286504745483</v>
+        <v>1.853286862373352</v>
       </c>
     </row>
     <row r="138">
@@ -2370,7 +2370,7 @@
         <v>0.9059664454361276</v>
       </c>
       <c r="D138" t="n">
-        <v>1.605281710624695</v>
+        <v>1.605281949043274</v>
       </c>
     </row>
     <row r="139">
@@ -2412,7 +2412,7 @@
         <v>0.8120863824874631</v>
       </c>
       <c r="D141" t="n">
-        <v>1.18932580947876</v>
+        <v>1.189325332641602</v>
       </c>
     </row>
     <row r="142">
@@ -2440,7 +2440,7 @@
         <v>0.9288299039003727</v>
       </c>
       <c r="D143" t="n">
-        <v>1.250353455543518</v>
+        <v>1.250353097915649</v>
       </c>
     </row>
     <row r="144">
@@ -2454,7 +2454,7 @@
         <v>1.024358516491067</v>
       </c>
       <c r="D144" t="n">
-        <v>1.375107765197754</v>
+        <v>1.375108003616333</v>
       </c>
     </row>
     <row r="145">
@@ -2468,7 +2468,7 @@
         <v>1.138595005746605</v>
       </c>
       <c r="D145" t="n">
-        <v>1.545208096504211</v>
+        <v>1.545208334922791</v>
       </c>
     </row>
     <row r="146">
@@ -2496,7 +2496,7 @@
         <v>1.407259081365338</v>
       </c>
       <c r="D147" t="n">
-        <v>1.946216940879822</v>
+        <v>1.946216583251953</v>
       </c>
     </row>
     <row r="148">
@@ -2524,7 +2524,7 @@
         <v>1.70295585789893</v>
       </c>
       <c r="D149" t="n">
-        <v>2.307870626449585</v>
+        <v>2.307870388031006</v>
       </c>
     </row>
     <row r="150">
@@ -2538,7 +2538,7 @@
         <v>1.849800134425909</v>
       </c>
       <c r="D150" t="n">
-        <v>2.442589521408081</v>
+        <v>2.442589282989502</v>
       </c>
     </row>
     <row r="151">
@@ -2566,7 +2566,7 @@
         <v>2.114712792623112</v>
       </c>
       <c r="D152" t="n">
-        <v>2.601437091827393</v>
+        <v>2.601437330245972</v>
       </c>
     </row>
     <row r="153">
@@ -2580,7 +2580,7 @@
         <v>2.220854016399727</v>
       </c>
       <c r="D153" t="n">
-        <v>2.630552291870117</v>
+        <v>2.630552530288696</v>
       </c>
     </row>
     <row r="154">
@@ -2608,7 +2608,7 @@
         <v>2.352116953170927</v>
       </c>
       <c r="D155" t="n">
-        <v>2.614894390106201</v>
+        <v>2.61489462852478</v>
       </c>
     </row>
     <row r="156">
@@ -2664,7 +2664,7 @@
         <v>2.237995850960032</v>
       </c>
       <c r="D159" t="n">
-        <v>2.436359405517578</v>
+        <v>2.436359167098999</v>
       </c>
     </row>
     <row r="160">
@@ -2678,7 +2678,7 @@
         <v>2.159201661468027</v>
       </c>
       <c r="D160" t="n">
-        <v>2.383350133895874</v>
+        <v>2.383350372314453</v>
       </c>
     </row>
     <row r="161">
@@ -2720,7 +2720,7 @@
         <v>2.832095742798542</v>
       </c>
       <c r="D163" t="n">
-        <v>3.743404626846313</v>
+        <v>3.743404150009155</v>
       </c>
     </row>
     <row r="164">
@@ -2734,7 +2734,7 @@
         <v>2.52027327898856</v>
       </c>
       <c r="D164" t="n">
-        <v>3.445217370986938</v>
+        <v>3.445217132568359</v>
       </c>
     </row>
     <row r="165">
@@ -2748,7 +2748,7 @@
         <v>2.180555824231854</v>
       </c>
       <c r="D165" t="n">
-        <v>3.124783992767334</v>
+        <v>3.124783754348755</v>
       </c>
     </row>
     <row r="166">
@@ -2762,7 +2762,7 @@
         <v>1.852666171321974</v>
       </c>
       <c r="D166" t="n">
-        <v>2.791497468948364</v>
+        <v>2.791496753692627</v>
       </c>
     </row>
     <row r="167">
@@ -2776,7 +2776,7 @@
         <v>1.562061094130623</v>
       </c>
       <c r="D167" t="n">
-        <v>2.458266258239746</v>
+        <v>2.458266496658325</v>
       </c>
     </row>
     <row r="168">
@@ -2790,7 +2790,7 @@
         <v>1.322592508670264</v>
       </c>
       <c r="D168" t="n">
-        <v>2.140083074569702</v>
+        <v>2.14008355140686</v>
       </c>
     </row>
     <row r="169">
@@ -2818,7 +2818,7 @@
         <v>1.012325463520111</v>
       </c>
       <c r="D170" t="n">
-        <v>1.603296875953674</v>
+        <v>1.603296518325806</v>
       </c>
     </row>
     <row r="171">
@@ -2832,7 +2832,7 @@
         <v>0.9370020524712093</v>
       </c>
       <c r="D171" t="n">
-        <v>1.405085206031799</v>
+        <v>1.405085563659668</v>
       </c>
     </row>
     <row r="172">
@@ -2846,7 +2846,7 @@
         <v>0.9078090914260366</v>
       </c>
       <c r="D172" t="n">
-        <v>1.265005707740784</v>
+        <v>1.265005588531494</v>
       </c>
     </row>
     <row r="173">
@@ -2888,7 +2888,7 @@
         <v>1.035188921984356</v>
       </c>
       <c r="D175" t="n">
-        <v>1.248690724372864</v>
+        <v>1.248690485954285</v>
       </c>
     </row>
     <row r="176">
@@ -2916,7 +2916,7 @@
         <v>1.244954023830588</v>
       </c>
       <c r="D177" t="n">
-        <v>1.54085910320282</v>
+        <v>1.540859222412109</v>
       </c>
     </row>
     <row r="178">
@@ -2930,7 +2930,7 @@
         <v>1.373878067304102</v>
       </c>
       <c r="D178" t="n">
-        <v>1.737276315689087</v>
+        <v>1.737276554107666</v>
       </c>
     </row>
     <row r="179">
@@ -2958,7 +2958,7 @@
         <v>1.660199288628626</v>
       </c>
       <c r="D180" t="n">
-        <v>2.134751558303833</v>
+        <v>2.134751319885254</v>
       </c>
     </row>
     <row r="181">
@@ -3028,7 +3028,7 @@
         <v>2.32721303448371</v>
       </c>
       <c r="D185" t="n">
-        <v>2.625405073165894</v>
+        <v>2.625404834747314</v>
       </c>
     </row>
     <row r="186">
@@ -3056,7 +3056,7 @@
         <v>2.458475971254909</v>
       </c>
       <c r="D187" t="n">
-        <v>2.609470367431641</v>
+        <v>2.609470129013062</v>
       </c>
     </row>
     <row r="188">
@@ -3070,7 +3070,7 @@
         <v>2.475695461787268</v>
       </c>
       <c r="D188" t="n">
-        <v>2.57646656036377</v>
+        <v>2.576466083526611</v>
       </c>
     </row>
     <row r="189">
@@ -3084,7 +3084,7 @@
         <v>2.459388463589136</v>
       </c>
       <c r="D189" t="n">
-        <v>2.533608913421631</v>
+        <v>2.533608675003052</v>
       </c>
     </row>
     <row r="190">
@@ -3126,7 +3126,7 @@
         <v>2.265560679552009</v>
       </c>
       <c r="D192" t="n">
-        <v>2.382088184356689</v>
+        <v>2.382088422775269</v>
       </c>
     </row>
     <row r="193">
@@ -3238,7 +3238,7 @@
         <v>1.479612423234867</v>
       </c>
       <c r="D200" t="n">
-        <v>2.146238327026367</v>
+        <v>2.146238565444946</v>
       </c>
     </row>
     <row r="201">
@@ -3266,7 +3266,7 @@
         <v>1.169345378084714</v>
       </c>
       <c r="D202" t="n">
-        <v>1.602653622627258</v>
+        <v>1.602653741836548</v>
       </c>
     </row>
     <row r="203">
@@ -3322,7 +3322,7 @@
         <v>1.119794265593114</v>
       </c>
       <c r="D206" t="n">
-        <v>1.188898324966431</v>
+        <v>1.188897848129272</v>
       </c>
     </row>
     <row r="207">
@@ -3350,7 +3350,7 @@
         <v>1.287737449139653</v>
       </c>
       <c r="D208" t="n">
-        <v>1.373623609542847</v>
+        <v>1.373623967170715</v>
       </c>
     </row>
     <row r="209">
@@ -3392,7 +3392,7 @@
         <v>1.670638014013924</v>
       </c>
       <c r="D211" t="n">
-        <v>1.942321300506592</v>
+        <v>1.942321419715881</v>
       </c>
     </row>
     <row r="212">
@@ -3434,7 +3434,7 @@
         <v>2.113179067074495</v>
       </c>
       <c r="D214" t="n">
-        <v>2.439476490020752</v>
+        <v>2.439476251602173</v>
       </c>
     </row>
     <row r="215">
@@ -3476,7 +3476,7 @@
         <v>2.484232949048313</v>
       </c>
       <c r="D217" t="n">
-        <v>2.625725030899048</v>
+        <v>2.625725269317627</v>
       </c>
     </row>
     <row r="218">
@@ -3490,7 +3490,7 @@
         <v>2.564989456909332</v>
       </c>
       <c r="D218" t="n">
-        <v>2.627711772918701</v>
+        <v>2.627712249755859</v>
       </c>
     </row>
     <row r="219">
@@ -3518,7 +3518,7 @@
         <v>2.632715376351871</v>
       </c>
       <c r="D220" t="n">
-        <v>2.576724052429199</v>
+        <v>2.57672381401062</v>
       </c>
     </row>
     <row r="221">
@@ -3546,7 +3546,7 @@
         <v>2.570035869854662</v>
       </c>
       <c r="D222" t="n">
-        <v>2.486884832382202</v>
+        <v>2.486884593963623</v>
       </c>
     </row>
     <row r="223">
@@ -3588,7 +3588,7 @@
         <v>2.349438492159465</v>
       </c>
       <c r="D225" t="n">
-        <v>2.338838338851929</v>
+        <v>2.33883810043335</v>
       </c>
     </row>
     <row r="226">
@@ -3630,7 +3630,7 @@
         <v>2.866494599745228</v>
       </c>
       <c r="D228" t="n">
-        <v>3.469574213027954</v>
+        <v>3.469573974609375</v>
       </c>
     </row>
     <row r="229">
@@ -3700,7 +3700,7 @@
         <v>1.485743541132141</v>
       </c>
       <c r="D233" t="n">
-        <v>1.861144185066223</v>
+        <v>1.861144542694092</v>
       </c>
     </row>
     <row r="234">
@@ -3728,7 +3728,7 @@
         <v>1.283223373227877</v>
       </c>
       <c r="D235" t="n">
-        <v>1.407400727272034</v>
+        <v>1.407401084899902</v>
       </c>
     </row>
     <row r="236">
@@ -3742,7 +3742,7 @@
         <v>1.254030412182705</v>
       </c>
       <c r="D236" t="n">
-        <v>1.27029025554657</v>
+        <v>1.270290374755859</v>
       </c>
     </row>
     <row r="237">
@@ -3784,7 +3784,7 @@
         <v>1.381410242741024</v>
       </c>
       <c r="D239" t="n">
-        <v>1.259106516838074</v>
+        <v>1.259106755256653</v>
       </c>
     </row>
     <row r="240">
@@ -3812,7 +3812,7 @@
         <v>1.591175344587257</v>
       </c>
       <c r="D241" t="n">
-        <v>1.549695611000061</v>
+        <v>1.549695730209351</v>
       </c>
     </row>
     <row r="242">
@@ -3840,7 +3840,7 @@
         <v>1.859839420205989</v>
       </c>
       <c r="D243" t="n">
-        <v>1.950590848922729</v>
+        <v>1.95059072971344</v>
       </c>
     </row>
     <row r="244">
@@ -3882,7 +3882,7 @@
         <v>2.30238047326656</v>
       </c>
       <c r="D246" t="n">
-        <v>2.448083639144897</v>
+        <v>2.448083877563477</v>
       </c>
     </row>
     <row r="247">
@@ -3896,7 +3896,7 @@
         <v>2.441583964650647</v>
       </c>
       <c r="D247" t="n">
-        <v>2.54482626914978</v>
+        <v>2.544826507568359</v>
       </c>
     </row>
     <row r="248">
@@ -3910,7 +3910,7 @@
         <v>2.567293131463764</v>
       </c>
       <c r="D248" t="n">
-        <v>2.604964256286621</v>
+        <v>2.604963779449463</v>
       </c>
     </row>
     <row r="249">
@@ -3938,7 +3938,7 @@
         <v>2.754190863101398</v>
       </c>
       <c r="D250" t="n">
-        <v>2.634558916091919</v>
+        <v>2.63455867767334</v>
       </c>
     </row>
     <row r="251">
@@ -3952,7 +3952,7 @@
         <v>2.804697292011578</v>
       </c>
       <c r="D251" t="n">
-        <v>2.616306781768799</v>
+        <v>2.616307020187378</v>
       </c>
     </row>
     <row r="252">
@@ -3994,7 +3994,7 @@
         <v>2.759237276046727</v>
       </c>
       <c r="D254" t="n">
-        <v>2.496237993240356</v>
+        <v>2.496238231658936</v>
       </c>
     </row>
     <row r="255">
@@ -4008,7 +4008,7 @@
         <v>2.690576189800682</v>
       </c>
       <c r="D255" t="n">
-        <v>2.44791054725647</v>
+        <v>2.447910785675049</v>
       </c>
     </row>
     <row r="256">
@@ -4022,7 +4022,7 @@
         <v>2.611782000308677</v>
       </c>
       <c r="D256" t="n">
-        <v>2.399894952774048</v>
+        <v>2.399894714355469</v>
       </c>
     </row>
     <row r="257">
@@ -4106,7 +4106,7 @@
         <v>2.403094654123874</v>
       </c>
       <c r="D262" t="n">
-        <v>2.836962223052979</v>
+        <v>2.836962461471558</v>
       </c>
     </row>
     <row r="263">
@@ -4148,7 +4148,7 @@
         <v>1.689950703177373</v>
       </c>
       <c r="D265" t="n">
-        <v>1.877229571342468</v>
+        <v>1.877229809761047</v>
       </c>
     </row>
     <row r="266">
@@ -4204,7 +4204,7 @@
         <v>1.468873883373346</v>
       </c>
       <c r="D269" t="n">
-        <v>1.20823073387146</v>
+        <v>1.20823085308075</v>
       </c>
     </row>
     <row r="270">
@@ -4358,7 +4358,7 @@
         <v>2.771500293508996</v>
       </c>
       <c r="D280" t="n">
-        <v>2.621155738830566</v>
+        <v>2.621155500411987</v>
       </c>
     </row>
     <row r="281">
@@ -4386,7 +4386,7 @@
         <v>2.95839802514663</v>
       </c>
       <c r="D282" t="n">
-        <v>2.649911403656006</v>
+        <v>2.649911165237427</v>
       </c>
     </row>
     <row r="283">
@@ -4414,7 +4414,7 @@
         <v>3.026123944589168</v>
       </c>
       <c r="D284" t="n">
-        <v>2.600048303604126</v>
+        <v>2.600047826766968</v>
       </c>
     </row>
     <row r="285">
@@ -4428,7 +4428,7 @@
         <v>3.009816946391036</v>
       </c>
       <c r="D285" t="n">
-        <v>2.559733152389526</v>
+        <v>2.559732913970947</v>
       </c>
     </row>
     <row r="286">
@@ -4442,7 +4442,7 @@
         <v>2.96344443809196</v>
       </c>
       <c r="D286" t="n">
-        <v>2.514821290969849</v>
+        <v>2.51482105255127</v>
       </c>
     </row>
     <row r="287">
@@ -4456,7 +4456,7 @@
         <v>2.894783351845915</v>
       </c>
       <c r="D287" t="n">
-        <v>2.468324422836304</v>
+        <v>2.468324661254883</v>
       </c>
     </row>
     <row r="288">
@@ -4470,7 +4470,7 @@
         <v>2.81598916235391</v>
       </c>
       <c r="D288" t="n">
-        <v>2.422411680221558</v>
+        <v>2.422412157058716</v>
       </c>
     </row>
     <row r="289">
@@ -4484,7 +4484,7 @@
         <v>2.742847060396763</v>
       </c>
       <c r="D289" t="n">
-        <v>2.378561019897461</v>
+        <v>2.378560781478882</v>
       </c>
     </row>
     <row r="290">
@@ -4526,7 +4526,7 @@
         <v>3.272844078700802</v>
       </c>
       <c r="D292" t="n">
-        <v>3.502626895904541</v>
+        <v>3.50262713432312</v>
       </c>
     </row>
     <row r="293">
@@ -4554,7 +4554,7 @@
         <v>2.605236971034215</v>
       </c>
       <c r="D294" t="n">
-        <v>2.858828544616699</v>
+        <v>2.858828783035278</v>
       </c>
     </row>
     <row r="295">
@@ -4610,7 +4610,7 @@
         <v>1.764896263232352</v>
       </c>
       <c r="D298" t="n">
-        <v>1.64098048210144</v>
+        <v>1.64098072052002</v>
       </c>
     </row>
     <row r="299">
@@ -4624,7 +4624,7 @@
         <v>1.689572852183451</v>
       </c>
       <c r="D299" t="n">
-        <v>1.434089183807373</v>
+        <v>1.434089541435242</v>
       </c>
     </row>
     <row r="300">
@@ -4666,7 +4666,7 @@
         <v>1.715345150740752</v>
       </c>
       <c r="D302" t="n">
-        <v>1.224538326263428</v>
+        <v>1.224538087844849</v>
       </c>
     </row>
     <row r="303">
@@ -4680,7 +4680,7 @@
         <v>1.787759721696597</v>
       </c>
       <c r="D303" t="n">
-        <v>1.292778611183167</v>
+        <v>1.292778134346008</v>
       </c>
     </row>
     <row r="304">
@@ -4722,7 +4722,7 @@
         <v>2.126448867016344</v>
       </c>
       <c r="D306" t="n">
-        <v>1.788832426071167</v>
+        <v>1.788832187652588</v>
       </c>
     </row>
     <row r="307">
@@ -4736,7 +4736,7 @@
         <v>2.266188899161562</v>
       </c>
       <c r="D307" t="n">
-        <v>1.995104432106018</v>
+        <v>1.995104312896729</v>
       </c>
     </row>
     <row r="308">
@@ -4764,7 +4764,7 @@
         <v>2.561885675695154</v>
       </c>
       <c r="D309" t="n">
-        <v>2.359370946884155</v>
+        <v>2.359370708465576</v>
       </c>
     </row>
     <row r="310">
@@ -4778,7 +4778,7 @@
         <v>2.708729952222133</v>
       </c>
       <c r="D310" t="n">
-        <v>2.493336915969849</v>
+        <v>2.493337154388428</v>
       </c>
     </row>
     <row r="311">
@@ -4792,7 +4792,7 @@
         <v>2.84793344360622</v>
       </c>
       <c r="D311" t="n">
-        <v>2.588884830474854</v>
+        <v>2.588885307312012</v>
       </c>
     </row>
     <row r="312">
@@ -4820,7 +4820,7 @@
         <v>3.079783834195951</v>
       </c>
       <c r="D313" t="n">
-        <v>2.674442768096924</v>
+        <v>2.674442529678345</v>
       </c>
     </row>
     <row r="314">
@@ -4862,7 +4862,7 @@
         <v>3.22826626149951</v>
       </c>
       <c r="D316" t="n">
-        <v>2.626796960830688</v>
+        <v>2.626796722412109</v>
       </c>
     </row>
     <row r="317">
@@ -4890,7 +4890,7 @@
         <v>3.165586755002301</v>
       </c>
       <c r="D318" t="n">
-        <v>2.544540882110596</v>
+        <v>2.544541358947754</v>
       </c>
     </row>
     <row r="319">
@@ -4932,7 +4932,7 @@
         <v>2.944989377307104</v>
       </c>
       <c r="D321" t="n">
-        <v>2.415142774581909</v>
+        <v>2.415143013000488</v>
       </c>
     </row>
     <row r="322">
@@ -4960,7 +4960,7 @@
         <v>3.767053474776978</v>
       </c>
       <c r="D323" t="n">
-        <v>3.818363189697266</v>
+        <v>3.818363666534424</v>
       </c>
     </row>
     <row r="324">
@@ -4974,7 +4974,7 @@
         <v>3.455231010966996</v>
       </c>
       <c r="D324" t="n">
-        <v>3.527266979217529</v>
+        <v>3.527267456054688</v>
       </c>
     </row>
     <row r="325">
@@ -5002,7 +5002,7 @@
         <v>2.78762390330041</v>
       </c>
       <c r="D326" t="n">
-        <v>2.886474847793579</v>
+        <v>2.886474370956421</v>
       </c>
     </row>
     <row r="327">
@@ -5016,7 +5016,7 @@
         <v>2.497018826109059</v>
       </c>
       <c r="D327" t="n">
-        <v>2.555508852005005</v>
+        <v>2.555509090423584</v>
       </c>
     </row>
     <row r="328">
@@ -5044,7 +5044,7 @@
         <v>2.074479952353908</v>
       </c>
       <c r="D329" t="n">
-        <v>1.935030221939087</v>
+        <v>1.935030341148376</v>
       </c>
     </row>
     <row r="330">
@@ -5072,7 +5072,7 @@
         <v>1.871959784449645</v>
       </c>
       <c r="D331" t="n">
-        <v>1.464449763298035</v>
+        <v>1.464449524879456</v>
       </c>
     </row>
     <row r="332">
@@ -5086,7 +5086,7 @@
         <v>1.842766823404473</v>
       </c>
       <c r="D332" t="n">
-        <v>1.319321274757385</v>
+        <v>1.319321155548096</v>
       </c>
     </row>
     <row r="333">
@@ -5100,7 +5100,7 @@
         <v>1.853403132549882</v>
       </c>
       <c r="D333" t="n">
-        <v>1.246964335441589</v>
+        <v>1.246964573860168</v>
       </c>
     </row>
     <row r="334">
@@ -5142,7 +5142,7 @@
         <v>2.065675266553486</v>
       </c>
       <c r="D336" t="n">
-        <v>1.450748682022095</v>
+        <v>1.450748443603516</v>
       </c>
     </row>
     <row r="337">
@@ -5240,7 +5240,7 @@
         <v>3.030320375872415</v>
       </c>
       <c r="D343" t="n">
-        <v>2.628116846084595</v>
+        <v>2.628117084503174</v>
       </c>
     </row>
     <row r="344">
@@ -5254,7 +5254,7 @@
         <v>3.156029542685531</v>
       </c>
       <c r="D344" t="n">
-        <v>2.686113834381104</v>
+        <v>2.686114072799683</v>
       </c>
     </row>
     <row r="345">
@@ -5268,7 +5268,7 @@
         <v>3.262170766462146</v>
       </c>
       <c r="D345" t="n">
-        <v>2.712375164031982</v>
+        <v>2.712374925613403</v>
       </c>
     </row>
     <row r="346">
@@ -5310,7 +5310,7 @@
         <v>3.410653193765704</v>
       </c>
       <c r="D348" t="n">
-        <v>2.665965557098389</v>
+        <v>2.665965795516968</v>
       </c>
     </row>
     <row r="349">
@@ -5338,7 +5338,7 @@
         <v>3.347973687268495</v>
       </c>
       <c r="D350" t="n">
-        <v>2.587064981460571</v>
+        <v>2.58706521987915</v>
       </c>
     </row>
     <row r="351">
@@ -5422,7 +5422,7 @@
         <v>3.599491880543806</v>
       </c>
       <c r="D356" t="n">
-        <v>3.560034275054932</v>
+        <v>3.560034036636353</v>
       </c>
     </row>
     <row r="357">
@@ -5464,7 +5464,7 @@
         <v>2.641279695685869</v>
       </c>
       <c r="D359" t="n">
-        <v>2.59290885925293</v>
+        <v>2.592908620834351</v>
       </c>
     </row>
     <row r="360">
@@ -5492,7 +5492,7 @@
         <v>2.218740821930719</v>
       </c>
       <c r="D361" t="n">
-        <v>1.977373242378235</v>
+        <v>1.977373361587524</v>
       </c>
     </row>
     <row r="362">
@@ -5506,7 +5506,7 @@
         <v>2.091544065075357</v>
       </c>
       <c r="D362" t="n">
-        <v>1.717601656913757</v>
+        <v>1.717602014541626</v>
       </c>
     </row>
     <row r="363">
@@ -5520,7 +5520,7 @@
         <v>2.016220654026455</v>
       </c>
       <c r="D363" t="n">
-        <v>1.507663488388062</v>
+        <v>1.507663726806641</v>
       </c>
     </row>
     <row r="364">
@@ -5534,7 +5534,7 @@
         <v>1.987027692981283</v>
       </c>
       <c r="D364" t="n">
-        <v>1.359887838363647</v>
+        <v>1.359887719154358</v>
       </c>
     </row>
     <row r="365">
@@ -5548,7 +5548,7 @@
         <v>1.997664002126692</v>
       </c>
       <c r="D365" t="n">
-        <v>1.284042835235596</v>
+        <v>1.284042596817017</v>
       </c>
     </row>
     <row r="366">
@@ -5590,7 +5590,7 @@
         <v>2.209936136130296</v>
       </c>
       <c r="D368" t="n">
-        <v>1.491852998733521</v>
+        <v>1.4918532371521</v>
       </c>
     </row>
     <row r="369">
@@ -5604,7 +5604,7 @@
         <v>2.324172625385834</v>
       </c>
       <c r="D369" t="n">
-        <v>1.670946598052979</v>
+        <v>1.670946359634399</v>
       </c>
     </row>
     <row r="370">
@@ -5618,7 +5618,7 @@
         <v>2.453096668859348</v>
       </c>
       <c r="D370" t="n">
-        <v>1.875746369361877</v>
+        <v>1.875746011734009</v>
       </c>
     </row>
     <row r="371">
@@ -5632,7 +5632,7 @@
         <v>2.592836701004567</v>
       </c>
       <c r="D371" t="n">
-        <v>2.086163520812988</v>
+        <v>2.086163759231567</v>
       </c>
     </row>
     <row r="372">
@@ -5660,7 +5660,7 @@
         <v>2.888533477538158</v>
       </c>
       <c r="D373" t="n">
-        <v>2.453125238418579</v>
+        <v>2.453125476837158</v>
       </c>
     </row>
     <row r="374">
@@ -5674,7 +5674,7 @@
         <v>3.035377754065137</v>
       </c>
       <c r="D374" t="n">
-        <v>2.586307525634766</v>
+        <v>2.586307764053345</v>
       </c>
     </row>
     <row r="375">
@@ -5688,7 +5688,7 @@
         <v>3.174581245449224</v>
       </c>
       <c r="D375" t="n">
-        <v>2.68037486076355</v>
+        <v>2.680375099182129</v>
       </c>
     </row>
     <row r="376">
@@ -5730,7 +5730,7 @@
         <v>3.487188143899976</v>
       </c>
       <c r="D378" t="n">
-        <v>2.764356374740601</v>
+        <v>2.764356136322021</v>
       </c>
     </row>
     <row r="379">
@@ -5758,7 +5758,7 @@
         <v>3.554914063342514</v>
       </c>
       <c r="D380" t="n">
-        <v>2.718448400497437</v>
+        <v>2.718448877334595</v>
       </c>
     </row>
     <row r="381">
@@ -5814,7 +5814,7 @@
         <v>3.344779281107255</v>
       </c>
       <c r="D384" t="n">
-        <v>2.564708709716797</v>
+        <v>2.564709186553955</v>
       </c>
     </row>
     <row r="385">
@@ -5828,7 +5828,7 @@
         <v>3.271637179150109</v>
       </c>
       <c r="D385" t="n">
-        <v>2.528720855712891</v>
+        <v>2.528720378875732</v>
       </c>
     </row>
     <row r="386">
@@ -5898,7 +5898,7 @@
         <v>3.019733690350517</v>
       </c>
       <c r="D390" t="n">
-        <v>2.965616226196289</v>
+        <v>2.965616464614868</v>
       </c>
     </row>
     <row r="391">
@@ -5954,7 +5954,7 @@
         <v>2.179392982548654</v>
       </c>
       <c r="D394" t="n">
-        <v>1.771417140960693</v>
+        <v>1.771417498588562</v>
       </c>
     </row>
     <row r="395">
@@ -5968,7 +5968,7 @@
         <v>2.104069571499753</v>
       </c>
       <c r="D395" t="n">
-        <v>1.562749743461609</v>
+        <v>1.56274950504303</v>
       </c>
     </row>
     <row r="396">
@@ -6052,7 +6052,7 @@
         <v>2.412021542859132</v>
       </c>
       <c r="D401" t="n">
-        <v>1.726166009902954</v>
+        <v>1.726165533065796</v>
       </c>
     </row>
     <row r="402">
@@ -6066,7 +6066,7 @@
         <v>2.540945586332646</v>
       </c>
       <c r="D402" t="n">
-        <v>1.935650706291199</v>
+        <v>1.935650587081909</v>
       </c>
     </row>
     <row r="403">
@@ -6094,7 +6094,7 @@
         <v>2.82726680765717</v>
       </c>
       <c r="D404" t="n">
-        <v>2.348618507385254</v>
+        <v>2.348618745803833</v>
       </c>
     </row>
     <row r="405">
@@ -6150,7 +6150,7 @@
         <v>3.388139329735639</v>
       </c>
       <c r="D408" t="n">
-        <v>2.801284313201904</v>
+        <v>2.801284074783325</v>
       </c>
     </row>
     <row r="409">
@@ -6164,7 +6164,7 @@
         <v>3.494280553512254</v>
       </c>
       <c r="D409" t="n">
-        <v>2.826481819152832</v>
+        <v>2.826481580734253</v>
       </c>
     </row>
     <row r="410">
@@ -6192,7 +6192,7 @@
         <v>3.625543490283453</v>
       </c>
       <c r="D411" t="n">
-        <v>2.810921192169189</v>
+        <v>2.810921669006348</v>
       </c>
     </row>
     <row r="412">
@@ -6220,7 +6220,7 @@
         <v>3.62645598261768</v>
       </c>
       <c r="D413" t="n">
-        <v>2.748510837554932</v>
+        <v>2.748510599136353</v>
       </c>
     </row>
     <row r="414">
@@ -6262,7 +6262,7 @@
         <v>3.432628198580553</v>
       </c>
       <c r="D416" t="n">
-        <v>2.637423992156982</v>
+        <v>2.637424230575562</v>
       </c>
     </row>
     <row r="417">
@@ -6276,7 +6276,7 @@
         <v>3.359486096623407</v>
       </c>
       <c r="D417" t="n">
-        <v>2.604038715362549</v>
+        <v>2.60403847694397</v>
       </c>
     </row>
     <row r="418">
@@ -6374,7 +6374,7 @@
         <v>2.504578489661236</v>
       </c>
       <c r="D424" t="n">
-        <v>2.377536296844482</v>
+        <v>2.377536058425903</v>
       </c>
     </row>
     <row r="425">
@@ -6444,7 +6444,7 @@
         <v>2.100431381562418</v>
       </c>
       <c r="D429" t="n">
-        <v>1.399018168449402</v>
+        <v>1.399018406867981</v>
       </c>
     </row>
     <row r="430">
@@ -6472,7 +6472,7 @@
         <v>2.217174902975327</v>
       </c>
       <c r="D431" t="n">
-        <v>1.463192343711853</v>
+        <v>1.463192582130432</v>
       </c>
     </row>
     <row r="432">
@@ -6486,7 +6486,7 @@
         <v>2.312703515566022</v>
       </c>
       <c r="D432" t="n">
-        <v>1.600158452987671</v>
+        <v>1.60015869140625</v>
       </c>
     </row>
     <row r="433">
@@ -6584,7 +6584,7 @@
         <v>3.27734862488495</v>
       </c>
       <c r="D439" t="n">
-        <v>2.816947460174561</v>
+        <v>2.81694769859314</v>
       </c>
     </row>
     <row r="440">
@@ -6626,7 +6626,7 @@
         <v>3.589955523335702</v>
       </c>
       <c r="D442" t="n">
-        <v>2.897327423095703</v>
+        <v>2.897327184677124</v>
       </c>
     </row>
     <row r="443">
@@ -6654,7 +6654,7 @@
         <v>3.65768144277824</v>
       </c>
       <c r="D444" t="n">
-        <v>2.853789329528809</v>
+        <v>2.853789567947388</v>
       </c>
     </row>
     <row r="445">
@@ -6682,7 +6682,7 @@
         <v>3.595001936281031</v>
       </c>
       <c r="D446" t="n">
-        <v>2.784610271453857</v>
+        <v>2.784610509872437</v>
       </c>
     </row>
     <row r="447">
@@ -6710,7 +6710,7 @@
         <v>3.447546660542981</v>
       </c>
       <c r="D448" t="n">
-        <v>2.714758634567261</v>
+        <v>2.71475887298584</v>
       </c>
     </row>
     <row r="449">
@@ -6766,7 +6766,7 @@
         <v>3.632054869131318</v>
       </c>
       <c r="D452" t="n">
-        <v>3.706020593643188</v>
+        <v>3.70602011680603</v>
       </c>
     </row>
     <row r="453">
@@ -6780,7 +6780,7 @@
         <v>3.292337414374613</v>
       </c>
       <c r="D453" t="n">
-        <v>3.393908023834229</v>
+        <v>3.393907785415649</v>
       </c>
     </row>
     <row r="454">
@@ -6836,7 +6836,7 @@
         <v>2.251303810518231</v>
       </c>
       <c r="D457" t="n">
-        <v>2.144935369491577</v>
+        <v>2.144935846328735</v>
       </c>
     </row>
     <row r="458">
@@ -6850,7 +6850,7 @@
         <v>2.124107053662869</v>
       </c>
       <c r="D458" t="n">
-        <v>1.893192291259766</v>
+        <v>1.893192410469055</v>
       </c>
     </row>
     <row r="459">
@@ -6864,7 +6864,7 @@
         <v>2.048783642613968</v>
       </c>
       <c r="D459" t="n">
-        <v>1.689394354820251</v>
+        <v>1.689394116401672</v>
       </c>
     </row>
     <row r="460">
@@ -6892,7 +6892,7 @@
         <v>2.030226990714204</v>
       </c>
       <c r="D461" t="n">
-        <v>1.464316725730896</v>
+        <v>1.464316487312317</v>
       </c>
     </row>
     <row r="462">
@@ -6962,7 +6962,7 @@
         <v>2.485659657446861</v>
       </c>
       <c r="D466" t="n">
-        <v>2.06262731552124</v>
+        <v>2.062627077102661</v>
       </c>
     </row>
     <row r="467">
@@ -6990,7 +6990,7 @@
         <v>2.771980878771385</v>
       </c>
       <c r="D468" t="n">
-        <v>2.48872971534729</v>
+        <v>2.488729476928711</v>
       </c>
     </row>
     <row r="469">
@@ -7046,7 +7046,7 @@
         <v>3.332853400849853</v>
       </c>
       <c r="D472" t="n">
-        <v>2.937758445739746</v>
+        <v>2.937758684158325</v>
       </c>
     </row>
     <row r="473">
@@ -7074,7 +7074,7 @@
         <v>3.519751132487488</v>
       </c>
       <c r="D474" t="n">
-        <v>2.960337400436401</v>
+        <v>2.960337162017822</v>
       </c>
     </row>
     <row r="475">
@@ -7088,7 +7088,7 @@
         <v>3.570257561397668</v>
       </c>
       <c r="D475" t="n">
-        <v>2.943428754806519</v>
+        <v>2.943428516387939</v>
       </c>
     </row>
     <row r="476">
@@ -7116,7 +7116,7 @@
         <v>3.571170053731894</v>
       </c>
       <c r="D477" t="n">
-        <v>2.882998466491699</v>
+        <v>2.88299822807312</v>
       </c>
     </row>
     <row r="478">
@@ -7144,7 +7144,7 @@
         <v>3.456136459186773</v>
       </c>
       <c r="D479" t="n">
-        <v>2.812805652618408</v>
+        <v>2.812805414199829</v>
       </c>
     </row>
     <row r="480">
@@ -7172,7 +7172,7 @@
         <v>3.304200167737621</v>
       </c>
       <c r="D481" t="n">
-        <v>2.749653577804565</v>
+        <v>2.749653339385986</v>
       </c>
     </row>
     <row r="482">
@@ -7228,7 +7228,7 @@
         <v>3.132319382194215</v>
       </c>
       <c r="D485" t="n">
-        <v>3.433928251266479</v>
+        <v>3.433928728103638</v>
       </c>
     </row>
     <row r="486">
@@ -7312,7 +7312,7 @@
         <v>1.888765610433569</v>
       </c>
       <c r="D491" t="n">
-        <v>1.73339855670929</v>
+        <v>1.733399033546448</v>
       </c>
     </row>
     <row r="492">
@@ -7340,7 +7340,7 @@
         <v>1.870208958533806</v>
       </c>
       <c r="D493" t="n">
-        <v>1.510443806648254</v>
+        <v>1.510444402694702</v>
       </c>
     </row>
     <row r="494">
@@ -7354,7 +7354,7 @@
         <v>1.914537908990871</v>
       </c>
       <c r="D494" t="n">
-        <v>1.502392768859863</v>
+        <v>1.502393007278442</v>
       </c>
     </row>
     <row r="495">
@@ -7382,7 +7382,7 @@
         <v>2.082481092537411</v>
       </c>
       <c r="D496" t="n">
-        <v>1.695997714996338</v>
+        <v>1.695997953414917</v>
       </c>
     </row>
     <row r="497">
@@ -7466,7 +7466,7 @@
         <v>2.907922710472252</v>
       </c>
       <c r="D502" t="n">
-        <v>2.830150365829468</v>
+        <v>2.830150127410889</v>
       </c>
     </row>
     <row r="503">
@@ -7494,7 +7494,7 @@
         <v>3.172835368669456</v>
       </c>
       <c r="D504" t="n">
-        <v>2.970584154129028</v>
+        <v>2.970584630966187</v>
       </c>
     </row>
     <row r="505">
@@ -7508,7 +7508,7 @@
         <v>3.27897659244607</v>
       </c>
       <c r="D505" t="n">
-        <v>2.991011142730713</v>
+        <v>2.991010904312134</v>
       </c>
     </row>
     <row r="506">
@@ -7522,7 +7522,7 @@
         <v>3.35973310030709</v>
       </c>
       <c r="D506" t="n">
-        <v>2.988158464431763</v>
+        <v>2.988158702850342</v>
       </c>
     </row>
     <row r="507">
@@ -7564,7 +7564,7 @@
         <v>3.411152021551496</v>
       </c>
       <c r="D509" t="n">
-        <v>2.90563702583313</v>
+        <v>2.905636548995972</v>
       </c>
     </row>
     <row r="510">
@@ -7620,7 +7620,7 @@
         <v>3.144182135557223</v>
       </c>
       <c r="D513" t="n">
-        <v>2.768792152404785</v>
+        <v>2.768792629241943</v>
       </c>
     </row>
     <row r="514">
@@ -7648,7 +7648,7 @@
         <v>3.540078759190842</v>
       </c>
       <c r="D515" t="n">
-        <v>4.044123649597168</v>
+        <v>4.044124126434326</v>
       </c>
     </row>
     <row r="516">
@@ -7662,7 +7662,7 @@
         <v>3.228256295380858</v>
       </c>
       <c r="D516" t="n">
-        <v>3.746942520141602</v>
+        <v>3.746942758560181</v>
       </c>
     </row>
     <row r="517">
@@ -7704,7 +7704,7 @@
         <v>2.270044110522922</v>
       </c>
       <c r="D519" t="n">
-        <v>2.776757478713989</v>
+        <v>2.776757717132568</v>
       </c>
     </row>
     <row r="520">
@@ -7760,7 +7760,7 @@
         <v>1.644985068863508</v>
       </c>
       <c r="D523" t="n">
-        <v>1.722837328910828</v>
+        <v>1.722837209701538</v>
       </c>
     </row>
     <row r="524">
@@ -7774,7 +7774,7 @@
         <v>1.615792107818336</v>
       </c>
       <c r="D524" t="n">
-        <v>1.578526496887207</v>
+        <v>1.578526377677917</v>
       </c>
     </row>
     <row r="525">
@@ -7788,7 +7788,7 @@
         <v>1.626428416963745</v>
       </c>
       <c r="D525" t="n">
-        <v>1.49942421913147</v>
+        <v>1.499423742294312</v>
       </c>
     </row>
     <row r="526">
@@ -7886,7 +7886,7 @@
         <v>2.368182305020925</v>
       </c>
       <c r="D532" t="n">
-        <v>2.490793943405151</v>
+        <v>2.49079418182373</v>
       </c>
     </row>
     <row r="533">
@@ -7900,7 +7900,7 @@
         <v>2.517297892375212</v>
       </c>
       <c r="D533" t="n">
-        <v>2.662865877151489</v>
+        <v>2.66286563873291</v>
       </c>
     </row>
     <row r="534">
@@ -7998,7 +7998,7 @@
         <v>3.183678478179567</v>
       </c>
       <c r="D540" t="n">
-        <v>2.878066301345825</v>
+        <v>2.878066539764404</v>
       </c>
     </row>
     <row r="541">
@@ -8012,7 +8012,7 @@
         <v>3.167371479981435</v>
       </c>
       <c r="D541" t="n">
-        <v>2.8399338722229</v>
+        <v>2.839934110641479</v>
       </c>
     </row>
     <row r="542">
@@ -8026,7 +8026,7 @@
         <v>3.120998971682359</v>
       </c>
       <c r="D542" t="n">
-        <v>2.80012583732605</v>
+        <v>2.800126075744629</v>
       </c>
     </row>
     <row r="543">
@@ -8068,7 +8068,7 @@
         <v>2.900401593987162</v>
       </c>
       <c r="D545" t="n">
-        <v>2.690155029296875</v>
+        <v>2.690154790878296</v>
       </c>
     </row>
     <row r="546">
@@ -8096,7 +8096,7 @@
         <v>3.231765244221343</v>
       </c>
       <c r="D547" t="n">
-        <v>3.959598064422607</v>
+        <v>3.959597587585449</v>
       </c>
     </row>
     <row r="548">
@@ -8110,7 +8110,7 @@
         <v>2.919942780411361</v>
       </c>
       <c r="D548" t="n">
-        <v>3.656841993331909</v>
+        <v>3.656842231750488</v>
       </c>
     </row>
     <row r="549">
@@ -8222,7 +8222,7 @@
         <v>1.307478592848837</v>
       </c>
       <c r="D556" t="n">
-        <v>1.460851788520813</v>
+        <v>1.460851550102234</v>
       </c>
     </row>
     <row r="557">
@@ -8236,7 +8236,7 @@
         <v>1.318114901994247</v>
       </c>
       <c r="D557" t="n">
-        <v>1.379522562026978</v>
+        <v>1.379522681236267</v>
       </c>
     </row>
     <row r="558">
@@ -8250,7 +8250,7 @@
         <v>1.362443852451311</v>
       </c>
       <c r="D558" t="n">
-        <v>1.367401480674744</v>
+        <v>1.367401242256165</v>
       </c>
     </row>
     <row r="559">
@@ -8334,7 +8334,7 @@
         <v>2.059868790051427</v>
       </c>
       <c r="D564" t="n">
-        <v>2.33077335357666</v>
+        <v>2.330773115158081</v>
       </c>
     </row>
     <row r="565">
@@ -8390,7 +8390,7 @@
         <v>2.620741312129896</v>
       </c>
       <c r="D568" t="n">
-        <v>2.751404285430908</v>
+        <v>2.751404523849487</v>
       </c>
     </row>
     <row r="569">
@@ -8446,7 +8446,7 @@
         <v>2.875364963210069</v>
       </c>
       <c r="D572" t="n">
-        <v>2.681853771209717</v>
+        <v>2.681854009628296</v>
       </c>
     </row>
     <row r="573">
@@ -8474,7 +8474,7 @@
         <v>2.812685456712861</v>
       </c>
       <c r="D574" t="n">
-        <v>2.59379243850708</v>
+        <v>2.593792676925659</v>
       </c>
     </row>
     <row r="575">
@@ -8516,7 +8516,7 @@
         <v>2.592088079017663</v>
       </c>
       <c r="D577" t="n">
-        <v>2.470303773880005</v>
+        <v>2.470304012298584</v>
       </c>
     </row>
     <row r="578">
@@ -8530,7 +8530,7 @@
         <v>3.120407697516839</v>
       </c>
       <c r="D578" t="n">
-        <v>4.027355670928955</v>
+        <v>4.027355194091797</v>
       </c>
     </row>
     <row r="579">
@@ -8572,7 +8572,7 @@
         <v>2.240314034521995</v>
       </c>
       <c r="D581" t="n">
-        <v>3.10590648651123</v>
+        <v>3.10590672492981</v>
       </c>
     </row>
     <row r="582">
@@ -8614,7 +8614,7 @@
         <v>1.382350718960405</v>
       </c>
       <c r="D584" t="n">
-        <v>2.111720323562622</v>
+        <v>2.111720085144043</v>
       </c>
     </row>
     <row r="585">
@@ -8628,7 +8628,7 @@
         <v>1.199280430665613</v>
       </c>
       <c r="D585" t="n">
-        <v>1.817037343978882</v>
+        <v>1.817037582397461</v>
       </c>
     </row>
     <row r="586">
@@ -8656,7 +8656,7 @@
         <v>0.9967602627613497</v>
       </c>
       <c r="D587" t="n">
-        <v>1.3532954454422</v>
+        <v>1.353295207023621</v>
       </c>
     </row>
     <row r="588">
@@ -8684,7 +8684,7 @@
         <v>0.9782036108615864</v>
       </c>
       <c r="D589" t="n">
-        <v>1.120236277580261</v>
+        <v>1.12023651599884</v>
       </c>
     </row>
     <row r="590">
@@ -8698,7 +8698,7 @@
         <v>1.022532561318651</v>
       </c>
       <c r="D590" t="n">
-        <v>1.105517387390137</v>
+        <v>1.105517148971558</v>
       </c>
     </row>
     <row r="591">
@@ -8712,7 +8712,7 @@
         <v>1.094947132274496</v>
       </c>
       <c r="D591" t="n">
-        <v>1.159173250198364</v>
+        <v>1.159173488616943</v>
       </c>
     </row>
     <row r="592">
@@ -8740,7 +8740,7 @@
         <v>1.304712234120729</v>
       </c>
       <c r="D593" t="n">
-        <v>1.438522696495056</v>
+        <v>1.438522458076477</v>
       </c>
     </row>
     <row r="594">
@@ -8768,7 +8768,7 @@
         <v>1.573376309739461</v>
       </c>
       <c r="D595" t="n">
-        <v>1.838390827178955</v>
+        <v>1.838390946388245</v>
       </c>
     </row>
     <row r="596">
@@ -8810,7 +8810,7 @@
         <v>2.015917362800032</v>
       </c>
       <c r="D598" t="n">
-        <v>2.32373046875</v>
+        <v>2.323730707168579</v>
       </c>
     </row>
     <row r="599">
@@ -8824,7 +8824,7 @@
         <v>2.155120854184119</v>
       </c>
       <c r="D599" t="n">
-        <v>2.404203176498413</v>
+        <v>2.404202938079834</v>
       </c>
     </row>
     <row r="600">
@@ -8866,7 +8866,7 @@
         <v>2.46772775263487</v>
       </c>
       <c r="D602" t="n">
-        <v>2.434706449508667</v>
+        <v>2.434706687927246</v>
       </c>
     </row>
     <row r="603">
@@ -8894,7 +8894,7 @@
         <v>2.535453672077408</v>
       </c>
       <c r="D604" t="n">
-        <v>2.359987020492554</v>
+        <v>2.359987497329712</v>
       </c>
     </row>
     <row r="605">
@@ -8922,7 +8922,7 @@
         <v>2.4727741655802</v>
       </c>
       <c r="D606" t="n">
-        <v>2.265504598617554</v>
+        <v>2.265504360198975</v>
       </c>
     </row>
     <row r="607">
@@ -8936,7 +8936,7 @@
         <v>2.404113079334155</v>
       </c>
       <c r="D607" t="n">
-        <v>2.21898078918457</v>
+        <v>2.218980550765991</v>
       </c>
     </row>
     <row r="608">
@@ -8950,7 +8950,7 @@
         <v>2.32531888984215</v>
       </c>
       <c r="D608" t="n">
-        <v>2.17518162727356</v>
+        <v>2.17518138885498</v>
       </c>
     </row>
     <row r="609">
@@ -8964,7 +8964,7 @@
         <v>2.252176787885003</v>
       </c>
       <c r="D609" t="n">
-        <v>2.134912729263306</v>
+        <v>2.134912490844727</v>
       </c>
     </row>
     <row r="610">
@@ -8978,7 +8978,7 @@
         <v>2.793047721481448</v>
       </c>
       <c r="D610" t="n">
-        <v>3.702012300491333</v>
+        <v>3.702012777328491</v>
       </c>
     </row>
     <row r="611">
@@ -8992,7 +8992,7 @@
         <v>2.564493977053292</v>
       </c>
       <c r="D611" t="n">
-        <v>3.413383007049561</v>
+        <v>3.41338324546814</v>
       </c>
     </row>
     <row r="612">
@@ -9006,7 +9006,7 @@
         <v>2.252671513243309</v>
       </c>
       <c r="D612" t="n">
-        <v>3.099658966064453</v>
+        <v>3.099658727645874</v>
       </c>
     </row>
     <row r="613">
@@ -9034,7 +9034,7 @@
         <v>1.585064405576723</v>
       </c>
       <c r="D614" t="n">
-        <v>2.427405834197998</v>
+        <v>2.427405595779419</v>
       </c>
     </row>
     <row r="615">
@@ -9076,7 +9076,7 @@
         <v>0.8719204546302224</v>
       </c>
       <c r="D617" t="n">
-        <v>1.471449971199036</v>
+        <v>1.471450209617615</v>
       </c>
     </row>
     <row r="618">
@@ -9090,7 +9090,7 @@
         <v>0.7447236977748599</v>
       </c>
       <c r="D618" t="n">
-        <v>1.214740753173828</v>
+        <v>1.214740514755249</v>
       </c>
     </row>
     <row r="619">
@@ -9118,7 +9118,7 @@
         <v>0.6402073256807861</v>
       </c>
       <c r="D620" t="n">
-        <v>0.8586078882217407</v>
+        <v>0.8586081266403198</v>
       </c>
     </row>
     <row r="621">
@@ -9160,7 +9160,7 @@
         <v>0.767587156239105</v>
       </c>
       <c r="D623" t="n">
-        <v>0.8159648180007935</v>
+        <v>0.8159651756286621</v>
       </c>
     </row>
     <row r="624">
@@ -9188,7 +9188,7 @@
         <v>0.977352258085338</v>
       </c>
       <c r="D625" t="n">
-        <v>1.09514057636261</v>
+        <v>1.095140695571899</v>
       </c>
     </row>
     <row r="626">
@@ -9230,7 +9230,7 @@
         <v>1.392597522883376</v>
       </c>
       <c r="D628" t="n">
-        <v>1.678894877433777</v>
+        <v>1.678894996643066</v>
       </c>
     </row>
     <row r="629">
@@ -9258,7 +9258,7 @@
         <v>1.688557386764641</v>
       </c>
       <c r="D630" t="n">
-        <v>1.969104170799255</v>
+        <v>1.969104290008545</v>
       </c>
     </row>
     <row r="631">
@@ -9286,7 +9286,7 @@
         <v>1.953470044961845</v>
       </c>
       <c r="D632" t="n">
-        <v>2.095666408538818</v>
+        <v>2.095666170120239</v>
       </c>
     </row>
     <row r="633">
@@ -9370,7 +9370,7 @@
         <v>2.145414189544809</v>
       </c>
       <c r="D638" t="n">
-        <v>1.925792217254639</v>
+        <v>1.925792098045349</v>
       </c>
     </row>
     <row r="639">
@@ -9412,7 +9412,7 @@
         <v>1.924816811849612</v>
       </c>
       <c r="D641" t="n">
-        <v>1.801621317863464</v>
+        <v>1.801621556282043</v>
       </c>
     </row>
     <row r="642">
@@ -9426,7 +9426,7 @@
         <v>2.52737671042688</v>
       </c>
       <c r="D642" t="n">
-        <v>3.369530200958252</v>
+        <v>3.369529962539673</v>
       </c>
     </row>
     <row r="643">
@@ -9454,7 +9454,7 @@
         <v>1.987000502188741</v>
       </c>
       <c r="D644" t="n">
-        <v>2.767663240432739</v>
+        <v>2.76766300201416</v>
       </c>
     </row>
     <row r="645">
@@ -9496,7 +9496,7 @@
         <v>1.028788317330804</v>
       </c>
       <c r="D647" t="n">
-        <v>1.763147711753845</v>
+        <v>1.763147473335266</v>
       </c>
     </row>
     <row r="648">
@@ -9538,7 +9538,7 @@
         <v>0.4790526867202916</v>
       </c>
       <c r="D650" t="n">
-        <v>0.8992824554443359</v>
+        <v>0.8992822170257568</v>
       </c>
     </row>
     <row r="651">
@@ -9566,7 +9566,7 @@
         <v>0.3745363146262179</v>
       </c>
       <c r="D652" t="n">
-        <v>0.5520569086074829</v>
+        <v>0.5520567893981934</v>
       </c>
     </row>
     <row r="653">
@@ -9594,7 +9594,7 @@
         <v>0.4295015742286916</v>
       </c>
       <c r="D654" t="n">
-        <v>0.464380145072937</v>
+        <v>0.4643803834915161</v>
       </c>
     </row>
     <row r="655">
@@ -9608,7 +9608,7 @@
         <v>0.5019161451845366</v>
       </c>
       <c r="D655" t="n">
-        <v>0.523787260055542</v>
+        <v>0.5237871408462524</v>
       </c>
     </row>
     <row r="656">
@@ -9622,7 +9622,7 @@
         <v>0.5974447577752313</v>
       </c>
       <c r="D656" t="n">
-        <v>0.6444069147109985</v>
+        <v>0.644406795501709</v>
       </c>
     </row>
     <row r="657">
@@ -9734,7 +9734,7 @@
         <v>1.687799033907277</v>
       </c>
       <c r="D664" t="n">
-        <v>1.831863403320312</v>
+        <v>1.831863164901733</v>
       </c>
     </row>
     <row r="665">
@@ -9776,7 +9776,7 @@
         <v>1.925203194455091</v>
       </c>
       <c r="D667" t="n">
-        <v>1.811623215675354</v>
+        <v>1.811623096466064</v>
       </c>
     </row>
     <row r="668">
@@ -9818,7 +9818,7 @@
         <v>1.879743178490241</v>
       </c>
       <c r="D670" t="n">
-        <v>1.691222667694092</v>
+        <v>1.691222786903381</v>
       </c>
     </row>
     <row r="671">
@@ -9832,7 +9832,7 @@
         <v>1.811082092244195</v>
       </c>
       <c r="D671" t="n">
-        <v>1.650656223297119</v>
+        <v>1.650656700134277</v>
       </c>
     </row>
     <row r="672">
@@ -9846,7 +9846,7 @@
         <v>1.73228790275219</v>
       </c>
       <c r="D672" t="n">
-        <v>1.61328911781311</v>
+        <v>1.6132892370224</v>
       </c>
     </row>
     <row r="673">
@@ -9902,7 +9902,7 @@
         <v>1.827376487591957</v>
       </c>
       <c r="D676" t="n">
-        <v>2.550089359283447</v>
+        <v>2.550089120864868</v>
       </c>
     </row>
     <row r="677">
@@ -9930,7 +9930,7 @@
         <v>1.159769379925371</v>
       </c>
       <c r="D678" t="n">
-        <v>1.888172030448914</v>
+        <v>1.888171911239624</v>
       </c>
     </row>
     <row r="679">
@@ -9958,7 +9958,7 @@
         <v>0.6296957172736617</v>
       </c>
       <c r="D680" t="n">
-        <v>1.243252873420715</v>
+        <v>1.243253350257874</v>
       </c>
     </row>
     <row r="681">
@@ -9986,7 +9986,7 @@
         <v>0.319428672123508</v>
       </c>
       <c r="D682" t="n">
-        <v>0.7099275588989258</v>
+        <v>0.7099276781082153</v>
       </c>
     </row>
     <row r="683">
@@ -10056,7 +10056,7 @@
         <v>0.3422921305877529</v>
       </c>
       <c r="D687" t="n">
-        <v>0.3614741563796997</v>
+        <v>0.3614736795425415</v>
       </c>
     </row>
     <row r="688">
@@ -10070,7 +10070,7 @@
         <v>0.4378207431784478</v>
       </c>
       <c r="D688" t="n">
-        <v>0.4875224828720093</v>
+        <v>0.4875222444534302</v>
       </c>
     </row>
     <row r="689">
@@ -10098,7 +10098,7 @@
         <v>0.6809812759074996</v>
       </c>
       <c r="D690" t="n">
-        <v>0.8610341548919678</v>
+        <v>0.8610343933105469</v>
       </c>
     </row>
     <row r="691">
@@ -10126,7 +10126,7 @@
         <v>0.9673024972320239</v>
       </c>
       <c r="D692" t="n">
-        <v>1.258068442344666</v>
+        <v>1.258068203926086</v>
       </c>
     </row>
     <row r="693">
@@ -10168,7 +10168,7 @@
         <v>1.402465852497376</v>
       </c>
       <c r="D695" t="n">
-        <v>1.643105030059814</v>
+        <v>1.643105268478394</v>
       </c>
     </row>
     <row r="696">
@@ -10210,7 +10210,7 @@
         <v>1.715072750948127</v>
       </c>
       <c r="D698" t="n">
-        <v>1.71855103969574</v>
+        <v>1.718551278114319</v>
       </c>
     </row>
     <row r="699">
@@ -10252,7 +10252,7 @@
         <v>1.766491672192533</v>
       </c>
       <c r="D701" t="n">
-        <v>1.626161217689514</v>
+        <v>1.626160979270935</v>
       </c>
     </row>
     <row r="702">
@@ -10266,7 +10266,7 @@
         <v>1.720119163893457</v>
       </c>
       <c r="D702" t="n">
-        <v>1.58711051940918</v>
+        <v>1.587110161781311</v>
       </c>
     </row>
     <row r="703">
@@ -10294,7 +10294,7 @@
         <v>1.572663888155407</v>
       </c>
       <c r="D704" t="n">
-        <v>1.515372633934021</v>
+        <v>1.515372395515442</v>
       </c>
     </row>
     <row r="705">
@@ -10364,7 +10364,7 @@
         <v>1.461905255417934</v>
       </c>
       <c r="D709" t="n">
-        <v>2.14044713973999</v>
+        <v>2.140447378158569</v>
       </c>
     </row>
     <row r="710">
@@ -10378,7 +10378,7 @@
         <v>1.134015602508053</v>
       </c>
       <c r="D710" t="n">
-        <v>1.808853387832642</v>
+        <v>1.808852910995483</v>
       </c>
     </row>
     <row r="711">
@@ -10490,7 +10490,7 @@
         <v>0.2441237822145901</v>
       </c>
       <c r="D718" t="n">
-        <v>0.2470247745513916</v>
+        <v>0.2470242977142334</v>
       </c>
     </row>
     <row r="719">
@@ -10518,7 +10518,7 @@
         <v>0.4120669657611298</v>
       </c>
       <c r="D720" t="n">
-        <v>0.444400429725647</v>
+        <v>0.4444006681442261</v>
       </c>
     </row>
     <row r="721">
@@ -10532,7 +10532,7 @@
         <v>0.5263034550166679</v>
       </c>
       <c r="D721" t="n">
-        <v>0.6211466789245605</v>
+        <v>0.6211464405059814</v>
       </c>
     </row>
     <row r="722">
@@ -10588,7 +10588,7 @@
         <v>1.090664307168992</v>
       </c>
       <c r="D725" t="n">
-        <v>1.389391779899597</v>
+        <v>1.389391660690308</v>
       </c>
     </row>
     <row r="726">
@@ -10602,7 +10602,7 @@
         <v>1.237508583695971</v>
       </c>
       <c r="D726" t="n">
-        <v>1.516501069068909</v>
+        <v>1.516501188278198</v>
       </c>
     </row>
     <row r="727">
@@ -10616,7 +10616,7 @@
         <v>1.376712075080059</v>
       </c>
       <c r="D727" t="n">
-        <v>1.607683777809143</v>
+        <v>1.607684016227722</v>
       </c>
     </row>
     <row r="728">
@@ -10630,7 +10630,7 @@
         <v>1.502421241893175</v>
       </c>
       <c r="D728" t="n">
-        <v>1.665399432182312</v>
+        <v>1.665399074554443</v>
       </c>
     </row>
     <row r="729">
@@ -10644,7 +10644,7 @@
         <v>1.60856246566979</v>
       </c>
       <c r="D729" t="n">
-        <v>1.692745685577393</v>
+        <v>1.692745447158813</v>
       </c>
     </row>
     <row r="730">
@@ -10686,7 +10686,7 @@
         <v>1.757044892973348</v>
       </c>
       <c r="D732" t="n">
-        <v>1.646710872650146</v>
+        <v>1.646710991859436</v>
       </c>
     </row>
     <row r="733">
@@ -10714,7 +10714,7 @@
         <v>1.694365386476139</v>
       </c>
       <c r="D734" t="n">
-        <v>1.572963714599609</v>
+        <v>1.57296347618103</v>
       </c>
     </row>
     <row r="735">
@@ -10728,7 +10728,7 @@
         <v>1.625704300230094</v>
       </c>
       <c r="D735" t="n">
-        <v>1.536572694778442</v>
+        <v>1.536572933197021</v>
       </c>
     </row>
     <row r="736">
@@ -10742,7 +10742,7 @@
         <v>1.546910110738089</v>
       </c>
       <c r="D736" t="n">
-        <v>1.503326416015625</v>
+        <v>1.503326058387756</v>
       </c>
     </row>
     <row r="737">
@@ -10756,7 +10756,7 @@
         <v>1.473768008780942</v>
       </c>
       <c r="D737" t="n">
-        <v>1.474209189414978</v>
+        <v>1.474209547042847</v>
       </c>
     </row>
     <row r="738">
@@ -10770,7 +10770,7 @@
         <v>2.450729817739784</v>
       </c>
       <c r="D738" t="n">
-        <v>3.061951398849487</v>
+        <v>3.061950922012329</v>
       </c>
     </row>
     <row r="739">
@@ -10798,7 +10798,7 @@
         <v>1.910353609501645</v>
       </c>
       <c r="D740" t="n">
-        <v>2.469064474105835</v>
+        <v>2.469064712524414</v>
       </c>
     </row>
     <row r="741">
@@ -10812,7 +10812,7 @@
         <v>1.57063615474494</v>
       </c>
       <c r="D741" t="n">
-        <v>2.14480447769165</v>
+        <v>2.144804716110229</v>
       </c>
     </row>
     <row r="742">
@@ -10896,7 +10896,7 @@
         <v>0.327082382984295</v>
       </c>
       <c r="D747" t="n">
-        <v>0.4682117700576782</v>
+        <v>0.46821129322052</v>
       </c>
     </row>
     <row r="748">
@@ -10966,7 +10966,7 @@
         <v>0.520797865088136</v>
       </c>
       <c r="D752" t="n">
-        <v>0.4653148651123047</v>
+        <v>0.4653146266937256</v>
       </c>
     </row>
     <row r="753">
@@ -10994,7 +10994,7 @@
         <v>0.763958397817188</v>
       </c>
       <c r="D754" t="n">
-        <v>0.8497264385223389</v>
+        <v>0.8497262001037598</v>
       </c>
     </row>
     <row r="755">
@@ -11022,7 +11022,7 @@
         <v>1.050279619141712</v>
       </c>
       <c r="D756" t="n">
-        <v>1.254243016242981</v>
+        <v>1.254242777824402</v>
       </c>
     </row>
     <row r="757">
@@ -11036,7 +11036,7 @@
         <v>1.199395206495999</v>
       </c>
       <c r="D757" t="n">
-        <v>1.41679847240448</v>
+        <v>1.416798710823059</v>
       </c>
     </row>
     <row r="758">
@@ -11120,7 +11120,7 @@
         <v>1.848556301767995</v>
       </c>
       <c r="D763" t="n">
-        <v>1.702802538871765</v>
+        <v>1.702802300453186</v>
       </c>
     </row>
     <row r="764">
@@ -11134,7 +11134,7 @@
         <v>1.865775792300354</v>
       </c>
       <c r="D764" t="n">
-        <v>1.675122976303101</v>
+        <v>1.675122857093811</v>
       </c>
     </row>
     <row r="765">
@@ -11162,7 +11162,7 @@
         <v>1.803096285803145</v>
       </c>
       <c r="D766" t="n">
-        <v>1.602558374404907</v>
+        <v>1.602558612823486</v>
       </c>
     </row>
     <row r="767">
@@ -11204,7 +11204,7 @@
         <v>1.582498908107948</v>
       </c>
       <c r="D769" t="n">
-        <v>1.502508997917175</v>
+        <v>1.502508878707886</v>
       </c>
     </row>
     <row r="770">
@@ -11218,7 +11218,7 @@
         <v>2.661876049444577</v>
       </c>
       <c r="D770" t="n">
-        <v>3.109538078308105</v>
+        <v>3.109537839889526</v>
       </c>
     </row>
     <row r="771">
@@ -11260,7 +11260,7 @@
         <v>1.781782386449733</v>
       </c>
       <c r="D773" t="n">
-        <v>2.188849210739136</v>
+        <v>2.188848972320557</v>
       </c>
     </row>
     <row r="774">
@@ -11274,7 +11274,7 @@
         <v>1.453892733539852</v>
       </c>
       <c r="D774" t="n">
-        <v>1.858437180519104</v>
+        <v>1.858437418937683</v>
       </c>
     </row>
     <row r="775">
@@ -11288,7 +11288,7 @@
         <v>1.163287656348502</v>
       </c>
       <c r="D775" t="n">
-        <v>1.533684730529785</v>
+        <v>1.533684968948364</v>
       </c>
     </row>
     <row r="776">
@@ -11316,7 +11316,7 @@
         <v>0.7407487825933514</v>
       </c>
       <c r="D777" t="n">
-        <v>0.9471080303192139</v>
+        <v>0.947108268737793</v>
       </c>
     </row>
     <row r="778">
@@ -11442,7 +11442,7 @@
         <v>0.9751046295219807</v>
       </c>
       <c r="D786" t="n">
-        <v>0.8967665433883667</v>
+        <v>0.8967667818069458</v>
       </c>
     </row>
     <row r="787">
@@ -11526,7 +11526,7 @@
         <v>1.822298372924974</v>
       </c>
       <c r="D792" t="n">
-        <v>1.72519314289093</v>
+        <v>1.725192666053772</v>
       </c>
     </row>
     <row r="793">
@@ -11568,7 +11568,7 @@
         <v>2.059702533472788</v>
       </c>
       <c r="D795" t="n">
-        <v>1.743357539176941</v>
+        <v>1.743357062339783</v>
       </c>
     </row>
     <row r="796">
@@ -11596,7 +11596,7 @@
         <v>2.060615025807015</v>
       </c>
       <c r="D797" t="n">
-        <v>1.683930277824402</v>
+        <v>1.683930397033691</v>
       </c>
     </row>
     <row r="798">
@@ -11624,7 +11624,7 @@
         <v>1.945581431261893</v>
       </c>
       <c r="D799" t="n">
-        <v>1.608761072158813</v>
+        <v>1.608761429786682</v>
       </c>
     </row>
     <row r="800">
@@ -11652,7 +11652,7 @@
         <v>1.793645139812741</v>
       </c>
       <c r="D801" t="n">
-        <v>1.542831063270569</v>
+        <v>1.542830944061279</v>
       </c>
     </row>
     <row r="802">
@@ -11680,7 +11680,7 @@
         <v>2.685768998120597</v>
       </c>
       <c r="D803" t="n">
-        <v>2.880577802658081</v>
+        <v>2.88057804107666</v>
       </c>
     </row>
     <row r="804">
@@ -11722,7 +11722,7 @@
         <v>1.706339426644028</v>
       </c>
       <c r="D806" t="n">
-        <v>1.912333726882935</v>
+        <v>1.912333846092224</v>
       </c>
     </row>
     <row r="807">
@@ -11736,7 +11736,7 @@
         <v>1.415734349452678</v>
       </c>
       <c r="D807" t="n">
-        <v>1.587644219398499</v>
+        <v>1.587644577026367</v>
       </c>
     </row>
     <row r="808">
@@ -11778,7 +11778,7 @@
         <v>0.8659987188421649</v>
       </c>
       <c r="D810" t="n">
-        <v>0.7619733810424805</v>
+        <v>0.7619731426239014</v>
       </c>
     </row>
     <row r="811">
@@ -11792,7 +11792,7 @@
         <v>0.7906753077932636</v>
       </c>
       <c r="D811" t="n">
-        <v>0.570387601852417</v>
+        <v>0.5703879594802856</v>
       </c>
     </row>
     <row r="812">
@@ -11876,7 +11876,7 @@
         <v>1.098627279152643</v>
       </c>
       <c r="D817" t="n">
-        <v>0.7380386590957642</v>
+        <v>0.7380383014678955</v>
       </c>
     </row>
     <row r="818">
@@ -11918,7 +11918,7 @@
         <v>1.513872543950681</v>
       </c>
       <c r="D820" t="n">
-        <v>1.355339050292969</v>
+        <v>1.355338931083679</v>
       </c>
     </row>
     <row r="821">
@@ -11946,7 +11946,7 @@
         <v>1.809832407831946</v>
       </c>
       <c r="D822" t="n">
-        <v>1.642278909683228</v>
+        <v>1.642279148101807</v>
       </c>
     </row>
     <row r="823">
@@ -11960,7 +11960,7 @@
         <v>1.949035899216033</v>
       </c>
       <c r="D823" t="n">
-        <v>1.724345088005066</v>
+        <v>1.724345326423645</v>
       </c>
     </row>
     <row r="824">
@@ -12002,7 +12002,7 @@
         <v>2.261642797666784</v>
       </c>
       <c r="D826" t="n">
-        <v>1.794478058815002</v>
+        <v>1.794477701187134</v>
       </c>
     </row>
     <row r="827">
@@ -12030,7 +12030,7 @@
         <v>2.329368717109323</v>
       </c>
       <c r="D828" t="n">
-        <v>1.759029746055603</v>
+        <v>1.759029626846313</v>
       </c>
     </row>
     <row r="829">
@@ -12044,7 +12044,7 @@
         <v>2.31306171891119</v>
       </c>
       <c r="D829" t="n">
-        <v>1.72663426399231</v>
+        <v>1.726634740829468</v>
       </c>
     </row>
     <row r="830">
@@ -12100,7 +12100,7 @@
         <v>2.046091832916917</v>
       </c>
       <c r="D833" t="n">
-        <v>1.582109212875366</v>
+        <v>1.582109570503235</v>
       </c>
     </row>
     <row r="834">
@@ -12114,7 +12114,7 @@
         <v>3.132470480119312</v>
       </c>
       <c r="D834" t="n">
-        <v>3.225107669830322</v>
+        <v>3.225107192993164</v>
       </c>
     </row>
     <row r="835">
@@ -12170,7 +12170,7 @@
         <v>1.924487164214588</v>
       </c>
       <c r="D838" t="n">
-        <v>1.962143182754517</v>
+        <v>1.962143301963806</v>
       </c>
     </row>
     <row r="839">
@@ -12184,7 +12184,7 @@
         <v>1.633882087023237</v>
       </c>
       <c r="D839" t="n">
-        <v>1.637480020523071</v>
+        <v>1.637479901313782</v>
       </c>
     </row>
     <row r="840">
@@ -12198,7 +12198,7 @@
         <v>1.394413501562878</v>
       </c>
       <c r="D840" t="n">
-        <v>1.33061945438385</v>
+        <v>1.330619096755981</v>
       </c>
     </row>
     <row r="841">
@@ -12226,7 +12226,7 @@
         <v>1.084146456412724</v>
       </c>
       <c r="D842" t="n">
-        <v>0.812211275100708</v>
+        <v>0.8122115135192871</v>
       </c>
     </row>
     <row r="843">
@@ -12268,7 +12268,7 @@
         <v>0.9902663934640596</v>
       </c>
       <c r="D845" t="n">
-        <v>0.4117108583450317</v>
+        <v>0.4117106199264526</v>
       </c>
     </row>
     <row r="846">
@@ -12296,7 +12296,7 @@
         <v>1.107009914876969</v>
       </c>
       <c r="D847" t="n">
-        <v>0.4729982614517212</v>
+        <v>0.4729980230331421</v>
       </c>
     </row>
     <row r="848">
@@ -12324,7 +12324,7 @@
         <v>1.316775016723202</v>
       </c>
       <c r="D849" t="n">
-        <v>0.7794114351272583</v>
+        <v>0.7794111967086792</v>
       </c>
     </row>
     <row r="850">
@@ -12394,7 +12394,7 @@
         <v>2.027980145402505</v>
       </c>
       <c r="D854" t="n">
-        <v>1.689361333847046</v>
+        <v>1.689361691474915</v>
       </c>
     </row>
     <row r="855">
@@ -12408,7 +12408,7 @@
         <v>2.167183636786592</v>
       </c>
       <c r="D855" t="n">
-        <v>1.771130323410034</v>
+        <v>1.771130561828613</v>
       </c>
     </row>
     <row r="856">
@@ -12520,7 +12520,7 @@
         <v>2.416175861936628</v>
       </c>
       <c r="D863" t="n">
-        <v>1.68717098236084</v>
+        <v>1.68717086315155</v>
       </c>
     </row>
     <row r="864">
@@ -12534,7 +12534,7 @@
         <v>2.337381672444623</v>
       </c>
       <c r="D864" t="n">
-        <v>1.649700164794922</v>
+        <v>1.649699926376343</v>
       </c>
     </row>
     <row r="865">
@@ -12548,7 +12548,7 @@
         <v>2.264239570487476</v>
       </c>
       <c r="D865" t="n">
-        <v>1.615364074707031</v>
+        <v>1.615363597869873</v>
       </c>
     </row>
     <row r="866">
@@ -12590,7 +12590,7 @@
         <v>2.709133707855635</v>
       </c>
       <c r="D868" t="n">
-        <v>2.662362337112427</v>
+        <v>2.662362098693848</v>
       </c>
     </row>
     <row r="869">
@@ -12604,7 +12604,7 @@
         <v>2.36941625309893</v>
       </c>
       <c r="D869" t="n">
-        <v>2.334138870239258</v>
+        <v>2.334139108657837</v>
       </c>
     </row>
     <row r="870">
@@ -12674,7 +12674,7 @@
         <v>1.201185892387186</v>
       </c>
       <c r="D874" t="n">
-        <v>0.8531749248504639</v>
+        <v>0.8531744480133057</v>
       </c>
     </row>
     <row r="875">
@@ -12702,7 +12702,7 @@
         <v>1.096669520293112</v>
       </c>
       <c r="D876" t="n">
-        <v>0.5228276252746582</v>
+        <v>0.5228277444839478</v>
       </c>
     </row>
     <row r="877">
@@ -12856,7 +12856,7 @@
         <v>2.284223072761054</v>
       </c>
       <c r="D887" t="n">
-        <v>1.810871958732605</v>
+        <v>1.810871839523315</v>
       </c>
     </row>
     <row r="888">
@@ -12940,7 +12940,7 @@
         <v>2.648248892456211</v>
       </c>
       <c r="D893" t="n">
-        <v>1.787535786628723</v>
+        <v>1.787535429000854</v>
       </c>
     </row>
     <row r="894">
@@ -12954,7 +12954,7 @@
         <v>2.601876384157134</v>
       </c>
       <c r="D894" t="n">
-        <v>1.752833008766174</v>
+        <v>1.752833127975464</v>
       </c>
     </row>
     <row r="895">
@@ -13010,7 +13010,7 @@
         <v>3.232348920937559</v>
       </c>
       <c r="D898" t="n">
-        <v>3.30458927154541</v>
+        <v>3.304589509963989</v>
       </c>
     </row>
     <row r="899">
@@ -13066,7 +13066,7 @@
         <v>2.024365605032834</v>
       </c>
       <c r="D902" t="n">
-        <v>2.032055139541626</v>
+        <v>2.032054901123047</v>
       </c>
     </row>
     <row r="903">
@@ -13080,7 +13080,7 @@
         <v>1.733760527841484</v>
       </c>
       <c r="D903" t="n">
-        <v>1.708032608032227</v>
+        <v>1.708032488822937</v>
       </c>
     </row>
     <row r="904">
@@ -13108,7 +13108,7 @@
         <v>1.311221654086333</v>
       </c>
       <c r="D905" t="n">
-        <v>1.124289512634277</v>
+        <v>1.124289631843567</v>
       </c>
     </row>
     <row r="906">
@@ -13178,7 +13178,7 @@
         <v>1.134473784739371</v>
       </c>
       <c r="D910" t="n">
-        <v>0.4677855968475342</v>
+        <v>0.4677854776382446</v>
       </c>
     </row>
     <row r="911">
@@ -13206,7 +13206,7 @@
         <v>1.302416968285911</v>
       </c>
       <c r="D912" t="n">
-        <v>0.655504584312439</v>
+        <v>0.6555049419403076</v>
       </c>
     </row>
     <row r="913">
@@ -13262,7 +13262,7 @@
         <v>1.831898722339487</v>
       </c>
       <c r="D916" t="n">
-        <v>1.459598183631897</v>
+        <v>1.459598302841187</v>
       </c>
     </row>
     <row r="917">
@@ -13276,7 +13276,7 @@
         <v>1.981014309693773</v>
       </c>
       <c r="D917" t="n">
-        <v>1.629397869110107</v>
+        <v>1.629398226737976</v>
       </c>
     </row>
     <row r="918">
@@ -13304,7 +13304,7 @@
         <v>2.267062077604839</v>
       </c>
       <c r="D919" t="n">
-        <v>1.842777848243713</v>
+        <v>1.842777609825134</v>
       </c>
     </row>
     <row r="920">
@@ -13346,7 +13346,7 @@
         <v>2.57966897605559</v>
       </c>
       <c r="D922" t="n">
-        <v>1.891064047813416</v>
+        <v>1.891063928604126</v>
       </c>
     </row>
     <row r="923">
@@ -13374,7 +13374,7 @@
         <v>2.647394895498128</v>
       </c>
       <c r="D924" t="n">
-        <v>1.83769166469574</v>
+        <v>1.837691903114319</v>
       </c>
     </row>
     <row r="925">
@@ -13458,7 +13458,7 @@
         <v>3.09768584386269</v>
       </c>
       <c r="D930" t="n">
-        <v>3.327170610427856</v>
+        <v>3.327170848846436</v>
       </c>
     </row>
     <row r="931">
@@ -13472,7 +13472,7 @@
         <v>2.869132099434534</v>
       </c>
       <c r="D931" t="n">
-        <v>3.029750823974609</v>
+        <v>3.02975058555603</v>
       </c>
     </row>
     <row r="932">
@@ -13486,7 +13486,7 @@
         <v>2.557309635624551</v>
       </c>
       <c r="D932" t="n">
-        <v>2.712321043014526</v>
+        <v>2.712321281433105</v>
       </c>
     </row>
     <row r="933">
@@ -13500,7 +13500,7 @@
         <v>2.217592180867846</v>
       </c>
       <c r="D933" t="n">
-        <v>2.383080959320068</v>
+        <v>2.383081197738647</v>
       </c>
     </row>
     <row r="934">
@@ -13514,7 +13514,7 @@
         <v>1.889702527957965</v>
       </c>
       <c r="D934" t="n">
-        <v>2.05167293548584</v>
+        <v>2.051672697067261</v>
       </c>
     </row>
     <row r="935">
@@ -13528,7 +13528,7 @@
         <v>1.599097450766615</v>
       </c>
       <c r="D935" t="n">
-        <v>1.72832202911377</v>
+        <v>1.728322148323059</v>
       </c>
     </row>
     <row r="936">
@@ -13542,7 +13542,7 @@
         <v>1.359628865306256</v>
       </c>
       <c r="D936" t="n">
-        <v>1.423123240470886</v>
+        <v>1.423123359680176</v>
       </c>
     </row>
     <row r="937">
@@ -13556,7 +13556,7 @@
         <v>1.176558577011464</v>
       </c>
       <c r="D937" t="n">
-        <v>1.145698189735413</v>
+        <v>1.145698070526123</v>
       </c>
     </row>
     <row r="938">
@@ -13612,7 +13612,7 @@
         <v>0.9554817572074374</v>
       </c>
       <c r="D941" t="n">
-        <v>0.4929887056350708</v>
+        <v>0.4929884672164917</v>
       </c>
     </row>
     <row r="942">
@@ -13654,7 +13654,7 @@
         <v>1.167753891211042</v>
       </c>
       <c r="D944" t="n">
-        <v>0.6689817905426025</v>
+        <v>0.668981671333313</v>
       </c>
     </row>
     <row r="945">
@@ -13752,7 +13752,7 @@
         <v>2.13239900052997</v>
       </c>
       <c r="D951" t="n">
-        <v>1.867400884628296</v>
+        <v>1.867400765419006</v>
       </c>
     </row>
     <row r="952">
@@ -13780,7 +13780,7 @@
         <v>2.364249391119702</v>
       </c>
       <c r="D953" t="n">
-        <v>1.928802013397217</v>
+        <v>1.928801774978638</v>
       </c>
     </row>
     <row r="954">
@@ -13808,7 +13808,7 @@
         <v>2.495512327890901</v>
       </c>
       <c r="D955" t="n">
-        <v>1.89054548740387</v>
+        <v>1.890545725822449</v>
       </c>
     </row>
     <row r="956">
@@ -13836,7 +13836,7 @@
         <v>2.496424820225128</v>
       </c>
       <c r="D957" t="n">
-        <v>1.819432258605957</v>
+        <v>1.819432497024536</v>
       </c>
     </row>
     <row r="958">
@@ -13906,7 +13906,7 @@
         <v>2.909391266086776</v>
       </c>
       <c r="D962" t="n">
-        <v>3.339953899383545</v>
+        <v>3.339954137802124</v>
       </c>
     </row>
     <row r="963">
@@ -13934,7 +13934,7 @@
         <v>2.369015057848637</v>
       </c>
       <c r="D964" t="n">
-        <v>2.72280740737915</v>
+        <v>2.722807168960571</v>
       </c>
     </row>
     <row r="965">
@@ -13976,7 +13976,7 @@
         <v>1.410802872990701</v>
       </c>
       <c r="D967" t="n">
-        <v>1.740159749984741</v>
+        <v>1.740159869194031</v>
       </c>
     </row>
     <row r="968">
@@ -14032,7 +14032,7 @@
         <v>0.7857438313312866</v>
       </c>
       <c r="D971" t="n">
-        <v>0.7229368686676025</v>
+        <v>0.7229366302490234</v>
       </c>
     </row>
     <row r="972">
@@ -14046,7 +14046,7 @@
         <v>0.7565508702861141</v>
       </c>
       <c r="D972" t="n">
-        <v>0.5816929340362549</v>
+        <v>0.5816935300827026</v>
       </c>
     </row>
     <row r="973">
@@ -14074,7 +14074,7 @@
         <v>0.8115161298885878</v>
       </c>
       <c r="D974" t="n">
-        <v>0.4917631149291992</v>
+        <v>0.4917633533477783</v>
       </c>
     </row>
     <row r="975">
@@ -14116,7 +14116,7 @@
         <v>1.093695802690666</v>
       </c>
       <c r="D977" t="n">
-        <v>0.8523844480514526</v>
+        <v>0.8523842096328735</v>
       </c>
     </row>
     <row r="978">
@@ -14158,7 +14158,7 @@
         <v>1.508941067488704</v>
       </c>
       <c r="D980" t="n">
-        <v>1.48695182800293</v>
+        <v>1.486952066421509</v>
       </c>
     </row>
     <row r="981">
@@ -14214,7 +14214,7 @@
         <v>2.069813589567173</v>
       </c>
       <c r="D984" t="n">
-        <v>1.936020731925964</v>
+        <v>1.936020493507385</v>
       </c>
     </row>
     <row r="985">
@@ -14228,7 +14228,7 @@
         <v>2.175954813343787</v>
       </c>
       <c r="D985" t="n">
-        <v>1.952053070068359</v>
+        <v>1.952053189277649</v>
       </c>
     </row>
     <row r="986">
@@ -14242,7 +14242,7 @@
         <v>2.256711321204807</v>
       </c>
       <c r="D986" t="n">
-        <v>1.941625118255615</v>
+        <v>1.941624999046326</v>
       </c>
     </row>
     <row r="987">
@@ -14256,7 +14256,7 @@
         <v>2.307217750114987</v>
       </c>
       <c r="D987" t="n">
-        <v>1.912948131561279</v>
+        <v>1.912948369979858</v>
       </c>
     </row>
     <row r="988">
@@ -14284,7 +14284,7 @@
         <v>2.308130242449213</v>
       </c>
       <c r="D989" t="n">
-        <v>1.832562446594238</v>
+        <v>1.832562685012817</v>
       </c>
     </row>
     <row r="990">
@@ -14298,7 +14298,7 @@
         <v>2.261757734150137</v>
       </c>
       <c r="D990" t="n">
-        <v>1.792738437652588</v>
+        <v>1.792738199234009</v>
       </c>
     </row>
     <row r="991">
@@ -14312,7 +14312,7 @@
         <v>2.193096647904091</v>
       </c>
       <c r="D991" t="n">
-        <v>1.755570769309998</v>
+        <v>1.755571007728577</v>
       </c>
     </row>
     <row r="992">
@@ -14340,7 +14340,7 @@
         <v>2.04116035645494</v>
       </c>
       <c r="D993" t="n">
-        <v>1.683508276939392</v>
+        <v>1.683508157730103</v>
       </c>
     </row>
     <row r="994">
@@ -14354,7 +14354,7 @@
         <v>2.75379086138471</v>
       </c>
       <c r="D994" t="n">
-        <v>3.344580173492432</v>
+        <v>3.344580411911011</v>
       </c>
     </row>
     <row r="995">
@@ -14368,7 +14368,7 @@
         <v>2.525237116956554</v>
       </c>
       <c r="D995" t="n">
-        <v>3.044404029846191</v>
+        <v>3.044403553009033</v>
       </c>
     </row>
     <row r="996">
@@ -14396,7 +14396,7 @@
         <v>1.873697198389866</v>
       </c>
       <c r="D997" t="n">
-        <v>2.396597862243652</v>
+        <v>2.396598339080811</v>
       </c>
     </row>
     <row r="998">
@@ -14438,7 +14438,7 @@
         <v>1.015733882828275</v>
       </c>
       <c r="D1000" t="n">
-        <v>1.441433548927307</v>
+        <v>1.441433310508728</v>
       </c>
     </row>
     <row r="1001">
@@ -14452,7 +14452,7 @@
         <v>0.8326635945334839</v>
       </c>
       <c r="D1001" t="n">
-        <v>1.164961338043213</v>
+        <v>1.164961576461792</v>
       </c>
     </row>
     <row r="1002">
@@ -14494,7 +14494,7 @@
         <v>0.6009504655840479</v>
       </c>
       <c r="D1004" t="n">
-        <v>0.5861469507217407</v>
+        <v>0.5861473083496094</v>
       </c>
     </row>
     <row r="1005">
@@ -14564,7 +14564,7 @@
         <v>0.9380953979885993</v>
       </c>
       <c r="D1009" t="n">
-        <v>0.8533062934875488</v>
+        <v>0.8533061742782593</v>
       </c>
     </row>
     <row r="1010">
@@ -14578,7 +14578,7 @@
         <v>1.067019441462113</v>
       </c>
       <c r="D1010" t="n">
-        <v>1.064063787460327</v>
+        <v>1.064063549041748</v>
       </c>
     </row>
     <row r="1011">
@@ -14592,7 +14592,7 @@
         <v>1.206759473607332</v>
       </c>
       <c r="D1011" t="n">
-        <v>1.284614086151123</v>
+        <v>1.284613966941833</v>
       </c>
     </row>
     <row r="1012">
@@ -14634,7 +14634,7 @@
         <v>1.649300526667903</v>
       </c>
       <c r="D1014" t="n">
-        <v>1.805779457092285</v>
+        <v>1.805779695510864</v>
       </c>
     </row>
     <row r="1015">
@@ -14648,7 +14648,7 @@
         <v>1.78850401805199</v>
       </c>
       <c r="D1015" t="n">
-        <v>1.899310111999512</v>
+        <v>1.899310231208801</v>
       </c>
     </row>
     <row r="1016">
@@ -14662,7 +14662,7 @@
         <v>1.914213184865106</v>
       </c>
       <c r="D1016" t="n">
-        <v>1.952529191970825</v>
+        <v>1.952528953552246</v>
       </c>
     </row>
     <row r="1017">
@@ -14704,7 +14704,7 @@
         <v>2.15161734541292</v>
       </c>
       <c r="D1019" t="n">
-        <v>1.934375643730164</v>
+        <v>1.934375405311584</v>
       </c>
     </row>
     <row r="1020">
@@ -14760,7 +14760,7 @@
         <v>2.037496243202025</v>
       </c>
       <c r="D1023" t="n">
-        <v>1.7609623670578</v>
+        <v>1.760962247848511</v>
       </c>
     </row>
     <row r="1024">
@@ -14774,7 +14774,7 @@
         <v>1.95870205371002</v>
       </c>
       <c r="D1024" t="n">
-        <v>1.723668932914734</v>
+        <v>1.723668694496155</v>
       </c>
     </row>
     <row r="1025">
